--- a/CsvToXlsx/bin/Debug/combined.xlsx
+++ b/CsvToXlsx/bin/Debug/combined.xlsx
@@ -920,7 +920,7 @@
     <numFmt numFmtId="165" formatCode="#,##0.00000"/>
     <numFmt numFmtId="166" formatCode="#,##0.0000"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -937,20 +937,34 @@
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="26"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000" tint="0"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEEEEEE" tint="0"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -958,20 +972,39 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium"/>
+      <top style="medium"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium"/>
+      <right style="medium"/>
+      <top style="medium"/>
+      <bottom style="medium"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="164" applyNumberFormat="1" fontId="0" applyFont="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="3" applyNumberFormat="1" fontId="0" applyFont="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="2" applyFill="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="165" applyNumberFormat="1" fontId="0" applyFont="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="166" applyNumberFormat="1" fontId="0" applyFont="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="4" applyNumberFormat="1" fontId="0" applyFont="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" borderId="2" applyBorder="1" xfId="0" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -984,7 +1017,10 @@
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A2:K244"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="12" topLeftCell="A13" state="frozen" activePane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -1055,7 +1091,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="0" t="s">
@@ -1067,19 +1103,19 @@
       <c r="D8" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="0" t="s">
+      <c r="E8" s="6" t="s">
         <v>9</v>
       </c>
       <c r="F8" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="7">
         <v>1</v>
       </c>
       <c r="H8" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="I8" s="6">
+      <c r="I8" s="8">
         <v>-3432.3434</v>
       </c>
     </row>
@@ -1104,10 +1140,10 @@
       <c r="A12" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" s="10" t="s">
         <v>16</v>
       </c>
       <c r="D12" s="0" t="s">
@@ -1136,7 +1172,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="0" t="s">
+      <c r="A14" s="11" t="s">
         <v>25</v>
       </c>
       <c r="B14" s="0" t="s">
@@ -1154,16 +1190,16 @@
       <c r="F14" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="G14" s="8">
+      <c r="G14" s="12">
         <v>2.01</v>
       </c>
-      <c r="H14" s="8">
+      <c r="H14" s="12">
         <v>-201</v>
       </c>
       <c r="I14" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="J14" s="8">
+      <c r="J14" s="12">
         <v>2.01</v>
       </c>
     </row>
@@ -1186,16 +1222,16 @@
       <c r="F15" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="G15" s="8">
+      <c r="G15" s="12">
         <v>26.27</v>
       </c>
-      <c r="H15" s="8">
+      <c r="H15" s="12">
         <v>52.54</v>
       </c>
       <c r="I15" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="J15" s="8">
+      <c r="J15" s="12">
         <v>26.27</v>
       </c>
     </row>
@@ -1218,21 +1254,21 @@
       <c r="F16" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="G16" s="8">
+      <c r="G16" s="12">
         <v>1.67</v>
       </c>
-      <c r="H16" s="8">
+      <c r="H16" s="12">
         <v>250.5</v>
       </c>
       <c r="I16" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="J16" s="8">
+      <c r="J16" s="12">
         <v>1.67</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="0" t="s">
+      <c r="A17" s="13" t="s">
         <v>32</v>
       </c>
       <c r="B17" s="0" t="s">
@@ -1250,16 +1286,16 @@
       <c r="F17" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="G17" s="8">
+      <c r="G17" s="12">
         <v>2.7</v>
       </c>
-      <c r="H17" s="8">
+      <c r="H17" s="12">
         <v>405</v>
       </c>
       <c r="I17" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="J17" s="8">
+      <c r="J17" s="12">
         <v>2.7</v>
       </c>
     </row>
@@ -1282,16 +1318,16 @@
       <c r="F18" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="G18" s="8">
+      <c r="G18" s="12">
         <v>2.9</v>
       </c>
-      <c r="H18" s="8">
+      <c r="H18" s="12">
         <v>812</v>
       </c>
       <c r="I18" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="J18" s="8">
+      <c r="J18" s="12">
         <v>2.9</v>
       </c>
     </row>
@@ -1314,16 +1350,16 @@
       <c r="F19" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="G19" s="8">
+      <c r="G19" s="12">
         <v>2.48</v>
       </c>
-      <c r="H19" s="8">
+      <c r="H19" s="12">
         <v>347.2</v>
       </c>
       <c r="I19" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="J19" s="8">
+      <c r="J19" s="12">
         <v>2.48</v>
       </c>
     </row>
@@ -1346,16 +1382,16 @@
       <c r="F20" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="G20" s="8">
+      <c r="G20" s="12">
         <v>26</v>
       </c>
-      <c r="H20" s="8">
+      <c r="H20" s="12">
         <v>23460</v>
       </c>
       <c r="I20" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="J20" s="8">
+      <c r="J20" s="12">
         <v>26</v>
       </c>
     </row>
@@ -1378,16 +1414,16 @@
       <c r="F21" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="G21" s="8">
+      <c r="G21" s="12">
         <v>0.48</v>
       </c>
-      <c r="H21" s="8">
+      <c r="H21" s="12">
         <v>24</v>
       </c>
       <c r="I21" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="J21" s="8">
+      <c r="J21" s="12">
         <v>0.48</v>
       </c>
     </row>
@@ -1410,16 +1446,16 @@
       <c r="F22" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="G22" s="8">
+      <c r="G22" s="12">
         <v>3.2</v>
       </c>
-      <c r="H22" s="8">
+      <c r="H22" s="12">
         <v>128</v>
       </c>
       <c r="I22" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="J22" s="8">
+      <c r="J22" s="12">
         <v>3.2</v>
       </c>
     </row>
@@ -1442,16 +1478,16 @@
       <c r="F23" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="G23" s="8">
+      <c r="G23" s="12">
         <v>30.8</v>
       </c>
-      <c r="H23" s="8">
+      <c r="H23" s="12">
         <v>616</v>
       </c>
       <c r="I23" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="J23" s="8">
+      <c r="J23" s="12">
         <v>30.8</v>
       </c>
     </row>
@@ -1474,16 +1510,16 @@
       <c r="F24" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="G24" s="8">
+      <c r="G24" s="12">
         <v>13.1</v>
       </c>
-      <c r="H24" s="8">
+      <c r="H24" s="12">
         <v>262</v>
       </c>
       <c r="I24" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="J24" s="8">
+      <c r="J24" s="12">
         <v>13.1</v>
       </c>
     </row>
@@ -1506,16 +1542,16 @@
       <c r="F25" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="G25" s="8">
+      <c r="G25" s="12">
         <v>11.82</v>
       </c>
-      <c r="H25" s="8">
+      <c r="H25" s="12">
         <v>472.8</v>
       </c>
       <c r="I25" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="J25" s="8">
+      <c r="J25" s="12">
         <v>11.82</v>
       </c>
     </row>
@@ -1538,16 +1574,16 @@
       <c r="F26" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="G26" s="8">
+      <c r="G26" s="12">
         <v>11.22</v>
       </c>
-      <c r="H26" s="8">
+      <c r="H26" s="12">
         <v>448.8</v>
       </c>
       <c r="I26" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="J26" s="8">
+      <c r="J26" s="12">
         <v>11.22</v>
       </c>
     </row>
@@ -1570,16 +1606,16 @@
       <c r="F27" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="G27" s="8">
+      <c r="G27" s="12">
         <v>11.22</v>
       </c>
-      <c r="H27" s="8">
+      <c r="H27" s="12">
         <v>224.4</v>
       </c>
       <c r="I27" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="J27" s="8">
+      <c r="J27" s="12">
         <v>11.22</v>
       </c>
     </row>
@@ -1602,16 +1638,16 @@
       <c r="F28" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="G28" s="8">
+      <c r="G28" s="12">
         <v>14.05</v>
       </c>
-      <c r="H28" s="8">
+      <c r="H28" s="12">
         <v>702.5</v>
       </c>
       <c r="I28" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="J28" s="8">
+      <c r="J28" s="12">
         <v>14.05</v>
       </c>
     </row>
@@ -1634,16 +1670,16 @@
       <c r="F29" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="G29" s="8">
+      <c r="G29" s="12">
         <v>18.54</v>
       </c>
-      <c r="H29" s="8">
+      <c r="H29" s="12">
         <v>778.68</v>
       </c>
       <c r="I29" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="J29" s="8">
+      <c r="J29" s="12">
         <v>18.54</v>
       </c>
     </row>
@@ -1666,16 +1702,16 @@
       <c r="F30" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="G30" s="8">
+      <c r="G30" s="12">
         <v>20.53</v>
       </c>
-      <c r="H30" s="8">
+      <c r="H30" s="12">
         <v>205.3</v>
       </c>
       <c r="I30" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="J30" s="8">
+      <c r="J30" s="12">
         <v>20.53</v>
       </c>
     </row>
@@ -1698,16 +1734,16 @@
       <c r="F31" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="G31" s="8">
+      <c r="G31" s="12">
         <v>70.04</v>
       </c>
-      <c r="H31" s="8">
+      <c r="H31" s="12">
         <v>700.4</v>
       </c>
       <c r="I31" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="J31" s="8">
+      <c r="J31" s="12">
         <v>70.04</v>
       </c>
     </row>
@@ -1730,16 +1766,16 @@
       <c r="F32" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="G32" s="8">
+      <c r="G32" s="12">
         <v>107.08</v>
       </c>
-      <c r="H32" s="8">
+      <c r="H32" s="12">
         <v>1606.2</v>
       </c>
       <c r="I32" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="J32" s="8">
+      <c r="J32" s="12">
         <v>107.08</v>
       </c>
     </row>
@@ -1762,16 +1798,16 @@
       <c r="F33" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="G33" s="8">
+      <c r="G33" s="12">
         <v>85.24</v>
       </c>
-      <c r="H33" s="8">
+      <c r="H33" s="12">
         <v>852.4</v>
       </c>
       <c r="I33" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="J33" s="8">
+      <c r="J33" s="12">
         <v>85.24</v>
       </c>
     </row>
@@ -1794,16 +1830,16 @@
       <c r="F34" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="G34" s="8">
+      <c r="G34" s="12">
         <v>126.79</v>
       </c>
-      <c r="H34" s="8">
+      <c r="H34" s="12">
         <v>507.16</v>
       </c>
       <c r="I34" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="J34" s="8">
+      <c r="J34" s="12">
         <v>126.79</v>
       </c>
     </row>
@@ -1826,16 +1862,16 @@
       <c r="F35" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="G35" s="8">
+      <c r="G35" s="12">
         <v>183.95</v>
       </c>
-      <c r="H35" s="8">
+      <c r="H35" s="12">
         <v>735.8</v>
       </c>
       <c r="I35" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="J35" s="8">
+      <c r="J35" s="12">
         <v>183.95</v>
       </c>
     </row>
@@ -1858,16 +1894,16 @@
       <c r="F36" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="G36" s="8">
+      <c r="G36" s="12">
         <v>1017.07</v>
       </c>
-      <c r="H36" s="8">
+      <c r="H36" s="12">
         <v>4068.28</v>
       </c>
       <c r="I36" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="J36" s="8">
+      <c r="J36" s="12">
         <v>1017.07</v>
       </c>
     </row>
@@ -1890,16 +1926,16 @@
       <c r="F37" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="G37" s="8">
+      <c r="G37" s="12">
         <v>965</v>
       </c>
-      <c r="H37" s="8">
+      <c r="H37" s="12">
         <v>1930</v>
       </c>
       <c r="I37" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="J37" s="8">
+      <c r="J37" s="12">
         <v>965</v>
       </c>
     </row>
@@ -1922,16 +1958,16 @@
       <c r="F38" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="G38" s="8">
+      <c r="G38" s="12">
         <v>52.5</v>
       </c>
-      <c r="H38" s="8">
+      <c r="H38" s="12">
         <v>525</v>
       </c>
       <c r="I38" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="J38" s="8">
+      <c r="J38" s="12">
         <v>52.5</v>
       </c>
     </row>
@@ -1954,16 +1990,16 @@
       <c r="F39" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="G39" s="8">
+      <c r="G39" s="12">
         <v>89.16</v>
       </c>
-      <c r="H39" s="8">
+      <c r="H39" s="12">
         <v>891.6</v>
       </c>
       <c r="I39" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="J39" s="8">
+      <c r="J39" s="12">
         <v>89.16</v>
       </c>
     </row>
@@ -1986,16 +2022,16 @@
       <c r="F40" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="G40" s="8">
+      <c r="G40" s="12">
         <v>59.41</v>
       </c>
-      <c r="H40" s="8">
+      <c r="H40" s="12">
         <v>594.1</v>
       </c>
       <c r="I40" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="J40" s="8">
+      <c r="J40" s="12">
         <v>59.41</v>
       </c>
     </row>
@@ -2018,16 +2054,16 @@
       <c r="F41" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="G41" s="8">
+      <c r="G41" s="12">
         <v>106.5</v>
       </c>
-      <c r="H41" s="8">
+      <c r="H41" s="12">
         <v>426</v>
       </c>
       <c r="I41" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="J41" s="8">
+      <c r="J41" s="12">
         <v>106.5</v>
       </c>
     </row>
@@ -2050,16 +2086,16 @@
       <c r="F42" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="G42" s="8">
+      <c r="G42" s="12">
         <v>171.6</v>
       </c>
-      <c r="H42" s="8">
+      <c r="H42" s="12">
         <v>343.2</v>
       </c>
       <c r="I42" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="J42" s="8">
+      <c r="J42" s="12">
         <v>171.6</v>
       </c>
     </row>
@@ -2082,16 +2118,16 @@
       <c r="F43" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="G43" s="8">
+      <c r="G43" s="12">
         <v>1.5</v>
       </c>
-      <c r="H43" s="8">
+      <c r="H43" s="12">
         <v>225</v>
       </c>
       <c r="I43" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="J43" s="8">
+      <c r="J43" s="12">
         <v>1.5</v>
       </c>
     </row>
@@ -2114,16 +2150,16 @@
       <c r="F44" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="G44" s="8">
+      <c r="G44" s="12">
         <v>2.63</v>
       </c>
-      <c r="H44" s="8">
+      <c r="H44" s="12">
         <v>526</v>
       </c>
       <c r="I44" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="J44" s="8">
+      <c r="J44" s="12">
         <v>2.63</v>
       </c>
     </row>
@@ -2146,16 +2182,16 @@
       <c r="F45" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="G45" s="8">
+      <c r="G45" s="12">
         <v>3.15</v>
       </c>
-      <c r="H45" s="8">
+      <c r="H45" s="12">
         <v>378</v>
       </c>
       <c r="I45" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="J45" s="8">
+      <c r="J45" s="12">
         <v>3.15</v>
       </c>
     </row>
@@ -2178,16 +2214,16 @@
       <c r="F46" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="G46" s="8">
+      <c r="G46" s="12">
         <v>3.72</v>
       </c>
-      <c r="H46" s="8">
+      <c r="H46" s="12">
         <v>446.4</v>
       </c>
       <c r="I46" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="J46" s="8">
+      <c r="J46" s="12">
         <v>3.72</v>
       </c>
     </row>
@@ -2210,16 +2246,16 @@
       <c r="F47" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="G47" s="8">
+      <c r="G47" s="12">
         <v>14.7</v>
       </c>
-      <c r="H47" s="8">
+      <c r="H47" s="12">
         <v>882</v>
       </c>
       <c r="I47" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="J47" s="8">
+      <c r="J47" s="12">
         <v>14.7</v>
       </c>
     </row>
@@ -2242,16 +2278,16 @@
       <c r="F48" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="G48" s="8">
+      <c r="G48" s="12">
         <v>41.5</v>
       </c>
-      <c r="H48" s="8">
+      <c r="H48" s="12">
         <v>3320</v>
       </c>
       <c r="I48" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="J48" s="8">
+      <c r="J48" s="12">
         <v>41.5</v>
       </c>
     </row>
@@ -2274,16 +2310,16 @@
       <c r="F49" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="G49" s="8">
+      <c r="G49" s="12">
         <v>25</v>
       </c>
-      <c r="H49" s="8">
+      <c r="H49" s="12">
         <v>500</v>
       </c>
       <c r="I49" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="J49" s="8">
+      <c r="J49" s="12">
         <v>25</v>
       </c>
     </row>
@@ -2306,16 +2342,16 @@
       <c r="F50" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="G50" s="8">
+      <c r="G50" s="12">
         <v>2.52</v>
       </c>
-      <c r="H50" s="8">
+      <c r="H50" s="12">
         <v>282.24</v>
       </c>
       <c r="I50" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="J50" s="8">
+      <c r="J50" s="12">
         <v>2.52</v>
       </c>
     </row>
@@ -2338,16 +2374,16 @@
       <c r="F51" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="G51" s="8">
+      <c r="G51" s="12">
         <v>5.04</v>
       </c>
-      <c r="H51" s="8">
+      <c r="H51" s="12">
         <v>272.16</v>
       </c>
       <c r="I51" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="J51" s="8">
+      <c r="J51" s="12">
         <v>5.04</v>
       </c>
     </row>
@@ -2370,16 +2406,16 @@
       <c r="F52" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="G52" s="8">
+      <c r="G52" s="12">
         <v>11.7</v>
       </c>
-      <c r="H52" s="8">
+      <c r="H52" s="12">
         <v>1263.6</v>
       </c>
       <c r="I52" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="J52" s="8">
+      <c r="J52" s="12">
         <v>11.7</v>
       </c>
     </row>
@@ -2402,16 +2438,16 @@
       <c r="F53" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="G53" s="8">
+      <c r="G53" s="12">
         <v>18.3</v>
       </c>
-      <c r="H53" s="8">
+      <c r="H53" s="12">
         <v>1756.8</v>
       </c>
       <c r="I53" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="J53" s="8">
+      <c r="J53" s="12">
         <v>18.3</v>
       </c>
     </row>
@@ -2434,16 +2470,16 @@
       <c r="F54" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="G54" s="8">
+      <c r="G54" s="12">
         <v>25.2</v>
       </c>
-      <c r="H54" s="8">
+      <c r="H54" s="12">
         <v>756</v>
       </c>
       <c r="I54" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="J54" s="8">
+      <c r="J54" s="12">
         <v>25.2</v>
       </c>
     </row>
@@ -2466,16 +2502,16 @@
       <c r="F55" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="G55" s="8">
+      <c r="G55" s="12">
         <v>18.4</v>
       </c>
-      <c r="H55" s="8">
+      <c r="H55" s="12">
         <v>1104</v>
       </c>
       <c r="I55" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="J55" s="8">
+      <c r="J55" s="12">
         <v>18.4</v>
       </c>
     </row>
@@ -2498,16 +2534,16 @@
       <c r="F56" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="G56" s="8">
+      <c r="G56" s="12">
         <v>40.6</v>
       </c>
-      <c r="H56" s="8">
+      <c r="H56" s="12">
         <v>1948.8</v>
       </c>
       <c r="I56" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="J56" s="8">
+      <c r="J56" s="12">
         <v>40.6</v>
       </c>
     </row>
@@ -2530,16 +2566,16 @@
       <c r="F57" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="G57" s="8">
+      <c r="G57" s="12">
         <v>104.8</v>
       </c>
-      <c r="H57" s="8">
+      <c r="H57" s="12">
         <v>2305.6</v>
       </c>
       <c r="I57" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="J57" s="8">
+      <c r="J57" s="12">
         <v>104.8</v>
       </c>
     </row>
@@ -2562,16 +2598,16 @@
       <c r="F58" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="G58" s="8">
+      <c r="G58" s="12">
         <v>24.5</v>
       </c>
-      <c r="H58" s="8">
+      <c r="H58" s="12">
         <v>686</v>
       </c>
       <c r="I58" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="J58" s="8">
+      <c r="J58" s="12">
         <v>24.5</v>
       </c>
     </row>
@@ -2594,16 +2630,16 @@
       <c r="F59" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="G59" s="8">
+      <c r="G59" s="12">
         <v>29.8</v>
       </c>
-      <c r="H59" s="8">
+      <c r="H59" s="12">
         <v>149</v>
       </c>
       <c r="I59" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="J59" s="8">
+      <c r="J59" s="12">
         <v>29.8</v>
       </c>
     </row>
@@ -2626,16 +2662,16 @@
       <c r="F60" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="G60" s="8">
+      <c r="G60" s="12">
         <v>10.15</v>
       </c>
-      <c r="H60" s="8">
+      <c r="H60" s="12">
         <v>162.4</v>
       </c>
       <c r="I60" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="J60" s="8">
+      <c r="J60" s="12">
         <v>10.15</v>
       </c>
     </row>
@@ -2658,16 +2694,16 @@
       <c r="F61" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="G61" s="8">
+      <c r="G61" s="12">
         <v>8.5</v>
       </c>
-      <c r="H61" s="8">
+      <c r="H61" s="12">
         <v>204</v>
       </c>
       <c r="I61" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="J61" s="8">
+      <c r="J61" s="12">
         <v>8.5</v>
       </c>
     </row>
@@ -2690,16 +2726,16 @@
       <c r="F62" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="G62" s="8">
+      <c r="G62" s="12">
         <v>15.4</v>
       </c>
-      <c r="H62" s="8">
+      <c r="H62" s="12">
         <v>308</v>
       </c>
       <c r="I62" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="J62" s="8">
+      <c r="J62" s="12">
         <v>15.4</v>
       </c>
     </row>
@@ -2722,16 +2758,16 @@
       <c r="F63" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="G63" s="8">
+      <c r="G63" s="12">
         <v>17.5</v>
       </c>
-      <c r="H63" s="8">
+      <c r="H63" s="12">
         <v>420</v>
       </c>
       <c r="I63" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="J63" s="8">
+      <c r="J63" s="12">
         <v>17.5</v>
       </c>
     </row>
@@ -2754,16 +2790,16 @@
       <c r="F64" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="G64" s="8">
+      <c r="G64" s="12">
         <v>5.65</v>
       </c>
-      <c r="H64" s="8">
+      <c r="H64" s="12">
         <v>203.4</v>
       </c>
       <c r="I64" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="J64" s="8">
+      <c r="J64" s="12">
         <v>5.65</v>
       </c>
     </row>
@@ -2786,16 +2822,16 @@
       <c r="F65" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="G65" s="8">
+      <c r="G65" s="12">
         <v>12.6</v>
       </c>
-      <c r="H65" s="8">
+      <c r="H65" s="12">
         <v>252</v>
       </c>
       <c r="I65" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="J65" s="8">
+      <c r="J65" s="12">
         <v>12.6</v>
       </c>
     </row>
@@ -2818,16 +2854,16 @@
       <c r="F66" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="G66" s="8">
+      <c r="G66" s="12">
         <v>20.2</v>
       </c>
-      <c r="H66" s="8">
+      <c r="H66" s="12">
         <v>404</v>
       </c>
       <c r="I66" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="J66" s="8">
+      <c r="J66" s="12">
         <v>20.2</v>
       </c>
     </row>
@@ -2850,16 +2886,16 @@
       <c r="F67" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="G67" s="8">
+      <c r="G67" s="12">
         <v>3.02</v>
       </c>
-      <c r="H67" s="8">
+      <c r="H67" s="12">
         <v>422.8</v>
       </c>
       <c r="I67" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="J67" s="8">
+      <c r="J67" s="12">
         <v>3.02</v>
       </c>
     </row>
@@ -2882,16 +2918,16 @@
       <c r="F68" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="G68" s="8">
+      <c r="G68" s="12">
         <v>0.3</v>
       </c>
-      <c r="H68" s="8">
+      <c r="H68" s="12">
         <v>324</v>
       </c>
       <c r="I68" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="J68" s="8">
+      <c r="J68" s="12">
         <v>0.3</v>
       </c>
     </row>
@@ -2914,16 +2950,16 @@
       <c r="F69" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="G69" s="8">
+      <c r="G69" s="12">
         <v>0.57</v>
       </c>
-      <c r="H69" s="8">
+      <c r="H69" s="12">
         <v>136.8</v>
       </c>
       <c r="I69" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="J69" s="8">
+      <c r="J69" s="12">
         <v>0.57</v>
       </c>
     </row>
@@ -2946,16 +2982,16 @@
       <c r="F70" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="G70" s="8">
+      <c r="G70" s="12">
         <v>1.88</v>
       </c>
-      <c r="H70" s="8">
+      <c r="H70" s="12">
         <v>225.6</v>
       </c>
       <c r="I70" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="J70" s="8">
+      <c r="J70" s="12">
         <v>1.88</v>
       </c>
     </row>
@@ -2978,16 +3014,16 @@
       <c r="F71" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="G71" s="8">
+      <c r="G71" s="12">
         <v>1.82</v>
       </c>
-      <c r="H71" s="8">
+      <c r="H71" s="12">
         <v>163.8</v>
       </c>
       <c r="I71" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="J71" s="8">
+      <c r="J71" s="12">
         <v>1.82</v>
       </c>
     </row>
@@ -3010,16 +3046,16 @@
       <c r="F72" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="G72" s="8">
+      <c r="G72" s="12">
         <v>2.06</v>
       </c>
-      <c r="H72" s="8">
+      <c r="H72" s="12">
         <v>123.6</v>
       </c>
       <c r="I72" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="J72" s="8">
+      <c r="J72" s="12">
         <v>2.06</v>
       </c>
     </row>
@@ -3042,16 +3078,16 @@
       <c r="F73" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="G73" s="8">
+      <c r="G73" s="12">
         <v>32.5</v>
       </c>
-      <c r="H73" s="8">
+      <c r="H73" s="12">
         <v>650</v>
       </c>
       <c r="I73" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="J73" s="8">
+      <c r="J73" s="12">
         <v>32.5</v>
       </c>
     </row>
@@ -3074,16 +3110,16 @@
       <c r="F74" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="G74" s="8">
+      <c r="G74" s="12">
         <v>13.88</v>
       </c>
-      <c r="H74" s="8">
+      <c r="H74" s="12">
         <v>416.4</v>
       </c>
       <c r="I74" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="J74" s="8">
+      <c r="J74" s="12">
         <v>13.88</v>
       </c>
     </row>
@@ -3106,16 +3142,16 @@
       <c r="F75" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="G75" s="8">
+      <c r="G75" s="12">
         <v>500</v>
       </c>
-      <c r="H75" s="8">
+      <c r="H75" s="12">
         <v>1000</v>
       </c>
       <c r="I75" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="J75" s="8">
+      <c r="J75" s="12">
         <v>500</v>
       </c>
     </row>
@@ -3138,16 +3174,16 @@
       <c r="F76" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="G76" s="8">
+      <c r="G76" s="12">
         <v>0.3</v>
       </c>
-      <c r="H76" s="8">
+      <c r="H76" s="12">
         <v>324</v>
       </c>
       <c r="I76" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="J76" s="8">
+      <c r="J76" s="12">
         <v>0.3</v>
       </c>
     </row>
@@ -3170,16 +3206,16 @@
       <c r="F77" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="G77" s="8">
+      <c r="G77" s="12">
         <v>0.36</v>
       </c>
-      <c r="H77" s="8">
+      <c r="H77" s="12">
         <v>345.6</v>
       </c>
       <c r="I77" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="J77" s="8">
+      <c r="J77" s="12">
         <v>0.36</v>
       </c>
     </row>
@@ -3202,16 +3238,16 @@
       <c r="F78" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="G78" s="8">
+      <c r="G78" s="12">
         <v>1.5</v>
       </c>
-      <c r="H78" s="8">
+      <c r="H78" s="12">
         <v>1575</v>
       </c>
       <c r="I78" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="J78" s="8">
+      <c r="J78" s="12">
         <v>1.5</v>
       </c>
     </row>
@@ -3234,16 +3270,16 @@
       <c r="F79" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="G79" s="8">
+      <c r="G79" s="12">
         <v>20</v>
       </c>
-      <c r="H79" s="8">
+      <c r="H79" s="12">
         <v>200</v>
       </c>
       <c r="I79" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="J79" s="8">
+      <c r="J79" s="12">
         <v>20</v>
       </c>
     </row>
@@ -3266,16 +3302,16 @@
       <c r="F80" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="G80" s="8">
+      <c r="G80" s="12">
         <v>30</v>
       </c>
-      <c r="H80" s="8">
+      <c r="H80" s="12">
         <v>600</v>
       </c>
       <c r="I80" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="J80" s="8">
+      <c r="J80" s="12">
         <v>30</v>
       </c>
     </row>
@@ -3298,16 +3334,16 @@
       <c r="F81" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="G81" s="8">
+      <c r="G81" s="12">
         <v>135</v>
       </c>
-      <c r="H81" s="8">
+      <c r="H81" s="12">
         <v>540</v>
       </c>
       <c r="I81" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="J81" s="8">
+      <c r="J81" s="12">
         <v>135</v>
       </c>
     </row>
@@ -3330,16 +3366,16 @@
       <c r="F82" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="G82" s="8">
+      <c r="G82" s="12">
         <v>211.6</v>
       </c>
-      <c r="H82" s="8">
+      <c r="H82" s="12">
         <v>846.4</v>
       </c>
       <c r="I82" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="J82" s="8">
+      <c r="J82" s="12">
         <v>211.6</v>
       </c>
     </row>
@@ -3362,16 +3398,16 @@
       <c r="F83" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="G83" s="8">
+      <c r="G83" s="12">
         <v>300</v>
       </c>
-      <c r="H83" s="8">
+      <c r="H83" s="12">
         <v>1500</v>
       </c>
       <c r="I83" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="J83" s="8">
+      <c r="J83" s="12">
         <v>300</v>
       </c>
     </row>
@@ -3394,16 +3430,16 @@
       <c r="F84" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="G84" s="8">
+      <c r="G84" s="12">
         <v>450</v>
       </c>
-      <c r="H84" s="8">
+      <c r="H84" s="12">
         <v>1800</v>
       </c>
       <c r="I84" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="J84" s="8">
+      <c r="J84" s="12">
         <v>450</v>
       </c>
     </row>
@@ -3426,16 +3462,16 @@
       <c r="F85" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="G85" s="8">
+      <c r="G85" s="12">
         <v>0.88</v>
       </c>
-      <c r="H85" s="8">
+      <c r="H85" s="12">
         <v>123.2</v>
       </c>
       <c r="I85" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="J85" s="8">
+      <c r="J85" s="12">
         <v>0.88</v>
       </c>
     </row>
@@ -3458,16 +3494,16 @@
       <c r="F86" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="G86" s="8">
+      <c r="G86" s="12">
         <v>0.35</v>
       </c>
-      <c r="H86" s="8">
+      <c r="H86" s="12">
         <v>168</v>
       </c>
       <c r="I86" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="J86" s="8">
+      <c r="J86" s="12">
         <v>0.35</v>
       </c>
     </row>
@@ -3490,16 +3526,16 @@
       <c r="F87" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="G87" s="8">
+      <c r="G87" s="12">
         <v>0.43</v>
       </c>
-      <c r="H87" s="8">
+      <c r="H87" s="12">
         <v>90.3</v>
       </c>
       <c r="I87" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="J87" s="8">
+      <c r="J87" s="12">
         <v>0.43</v>
       </c>
     </row>
@@ -3522,16 +3558,16 @@
       <c r="F88" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="G88" s="8">
+      <c r="G88" s="12">
         <v>1.36</v>
       </c>
-      <c r="H88" s="8">
+      <c r="H88" s="12">
         <v>244.8</v>
       </c>
       <c r="I88" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="J88" s="8">
+      <c r="J88" s="12">
         <v>1.36</v>
       </c>
     </row>
@@ -3554,16 +3590,16 @@
       <c r="F89" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="G89" s="8">
+      <c r="G89" s="12">
         <v>1.36</v>
       </c>
-      <c r="H89" s="8">
+      <c r="H89" s="12">
         <v>326.4</v>
       </c>
       <c r="I89" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="J89" s="8">
+      <c r="J89" s="12">
         <v>1.36</v>
       </c>
     </row>
@@ -3586,16 +3622,16 @@
       <c r="F90" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="G90" s="8">
+      <c r="G90" s="12">
         <v>2.95</v>
       </c>
-      <c r="H90" s="8">
+      <c r="H90" s="12">
         <v>218.3</v>
       </c>
       <c r="I90" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="J90" s="8">
+      <c r="J90" s="12">
         <v>2.95</v>
       </c>
     </row>
@@ -3618,16 +3654,16 @@
       <c r="F91" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="G91" s="8">
+      <c r="G91" s="12">
         <v>2.7</v>
       </c>
-      <c r="H91" s="8">
+      <c r="H91" s="12">
         <v>199.8</v>
       </c>
       <c r="I91" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="J91" s="8">
+      <c r="J91" s="12">
         <v>2.7</v>
       </c>
     </row>
@@ -3650,16 +3686,16 @@
       <c r="F92" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="G92" s="8">
+      <c r="G92" s="12">
         <v>75</v>
       </c>
-      <c r="H92" s="8">
+      <c r="H92" s="12">
         <v>750</v>
       </c>
       <c r="I92" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="J92" s="8">
+      <c r="J92" s="12">
         <v>75</v>
       </c>
     </row>
@@ -3682,16 +3718,16 @@
       <c r="F93" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="G93" s="8">
+      <c r="G93" s="12">
         <v>50</v>
       </c>
-      <c r="H93" s="8">
+      <c r="H93" s="12">
         <v>1000</v>
       </c>
       <c r="I93" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="J93" s="8">
+      <c r="J93" s="12">
         <v>50</v>
       </c>
     </row>
@@ -3714,16 +3750,16 @@
       <c r="F94" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="G94" s="8">
+      <c r="G94" s="12">
         <v>2.09</v>
       </c>
-      <c r="H94" s="8">
+      <c r="H94" s="12">
         <v>564.3</v>
       </c>
       <c r="I94" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="J94" s="8">
+      <c r="J94" s="12">
         <v>2.09</v>
       </c>
     </row>
@@ -3746,16 +3782,16 @@
       <c r="F95" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="G95" s="8">
+      <c r="G95" s="12">
         <v>0.32</v>
       </c>
-      <c r="H95" s="8">
+      <c r="H95" s="12">
         <v>160</v>
       </c>
       <c r="I95" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="J95" s="8">
+      <c r="J95" s="12">
         <v>0.32</v>
       </c>
     </row>
@@ -3778,16 +3814,16 @@
       <c r="F96" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="G96" s="8">
+      <c r="G96" s="12">
         <v>0.57</v>
       </c>
-      <c r="H96" s="8">
+      <c r="H96" s="12">
         <v>285</v>
       </c>
       <c r="I96" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="J96" s="8">
+      <c r="J96" s="12">
         <v>0.57</v>
       </c>
     </row>
@@ -3810,16 +3846,16 @@
       <c r="F97" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="G97" s="8">
+      <c r="G97" s="12">
         <v>0.68</v>
       </c>
-      <c r="H97" s="8">
+      <c r="H97" s="12">
         <v>136</v>
       </c>
       <c r="I97" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="J97" s="8">
+      <c r="J97" s="12">
         <v>0.68</v>
       </c>
     </row>
@@ -3842,16 +3878,16 @@
       <c r="F98" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="G98" s="8">
+      <c r="G98" s="12">
         <v>1.49</v>
       </c>
-      <c r="H98" s="8">
+      <c r="H98" s="12">
         <v>223.5</v>
       </c>
       <c r="I98" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="J98" s="8">
+      <c r="J98" s="12">
         <v>1.49</v>
       </c>
     </row>
@@ -3874,16 +3910,16 @@
       <c r="F99" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="G99" s="8">
+      <c r="G99" s="12">
         <v>9.3</v>
       </c>
-      <c r="H99" s="8">
+      <c r="H99" s="12">
         <v>279</v>
       </c>
       <c r="I99" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="J99" s="8">
+      <c r="J99" s="12">
         <v>9.3</v>
       </c>
     </row>
@@ -3906,16 +3942,16 @@
       <c r="F100" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="G100" s="8">
+      <c r="G100" s="12">
         <v>0.32</v>
       </c>
-      <c r="H100" s="8">
+      <c r="H100" s="12">
         <v>160</v>
       </c>
       <c r="I100" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="J100" s="8">
+      <c r="J100" s="12">
         <v>0.32</v>
       </c>
     </row>
@@ -3938,16 +3974,16 @@
       <c r="F101" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="G101" s="8">
+      <c r="G101" s="12">
         <v>16</v>
       </c>
-      <c r="H101" s="8">
+      <c r="H101" s="12">
         <v>48</v>
       </c>
       <c r="I101" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="J101" s="8">
+      <c r="J101" s="12">
         <v>16</v>
       </c>
     </row>
@@ -3970,16 +4006,16 @@
       <c r="F102" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="G102" s="8">
+      <c r="G102" s="12">
         <v>21.6</v>
       </c>
-      <c r="H102" s="8">
+      <c r="H102" s="12">
         <v>216</v>
       </c>
       <c r="I102" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="J102" s="8">
+      <c r="J102" s="12">
         <v>21.6</v>
       </c>
     </row>
@@ -4002,16 +4038,16 @@
       <c r="F103" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="G103" s="8">
+      <c r="G103" s="12">
         <v>1.52</v>
       </c>
-      <c r="H103" s="8">
+      <c r="H103" s="12">
         <v>152</v>
       </c>
       <c r="I103" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="J103" s="8">
+      <c r="J103" s="12">
         <v>1.52</v>
       </c>
     </row>
@@ -4034,16 +4070,16 @@
       <c r="F104" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="G104" s="8">
+      <c r="G104" s="12">
         <v>14.5</v>
       </c>
-      <c r="H104" s="8">
+      <c r="H104" s="12">
         <v>217.5</v>
       </c>
       <c r="I104" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="J104" s="8">
+      <c r="J104" s="12">
         <v>14.5</v>
       </c>
     </row>
@@ -4066,16 +4102,16 @@
       <c r="F105" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="G105" s="8">
+      <c r="G105" s="12">
         <v>38</v>
       </c>
-      <c r="H105" s="8">
+      <c r="H105" s="12">
         <v>380</v>
       </c>
       <c r="I105" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="J105" s="8">
+      <c r="J105" s="12">
         <v>38</v>
       </c>
     </row>
@@ -4098,16 +4134,16 @@
       <c r="F106" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="G106" s="8">
+      <c r="G106" s="12">
         <v>65</v>
       </c>
-      <c r="H106" s="8">
+      <c r="H106" s="12">
         <v>390</v>
       </c>
       <c r="I106" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="J106" s="8">
+      <c r="J106" s="12">
         <v>65</v>
       </c>
     </row>
@@ -4130,16 +4166,16 @@
       <c r="F107" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="G107" s="8">
+      <c r="G107" s="12">
         <v>1.9</v>
       </c>
-      <c r="H107" s="8">
+      <c r="H107" s="12">
         <v>285</v>
       </c>
       <c r="I107" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="J107" s="8">
+      <c r="J107" s="12">
         <v>1.9</v>
       </c>
     </row>
@@ -4162,16 +4198,16 @@
       <c r="F108" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="G108" s="8">
+      <c r="G108" s="12">
         <v>5.4</v>
       </c>
-      <c r="H108" s="8">
+      <c r="H108" s="12">
         <v>108</v>
       </c>
       <c r="I108" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="J108" s="8">
+      <c r="J108" s="12">
         <v>5.4</v>
       </c>
     </row>
@@ -4194,16 +4230,16 @@
       <c r="F109" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="G109" s="8">
+      <c r="G109" s="12">
         <v>42</v>
       </c>
-      <c r="H109" s="8">
+      <c r="H109" s="12">
         <v>840</v>
       </c>
       <c r="I109" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="J109" s="8">
+      <c r="J109" s="12">
         <v>42</v>
       </c>
     </row>
@@ -4226,16 +4262,16 @@
       <c r="F110" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="G110" s="8">
+      <c r="G110" s="12">
         <v>82.1</v>
       </c>
-      <c r="H110" s="8">
+      <c r="H110" s="12">
         <v>656.8</v>
       </c>
       <c r="I110" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="J110" s="8">
+      <c r="J110" s="12">
         <v>82.1</v>
       </c>
     </row>
@@ -4258,16 +4294,16 @@
       <c r="F111" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="G111" s="8">
+      <c r="G111" s="12">
         <v>45.7</v>
       </c>
-      <c r="H111" s="8">
+      <c r="H111" s="12">
         <v>457</v>
       </c>
       <c r="I111" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="J111" s="8">
+      <c r="J111" s="12">
         <v>45.7</v>
       </c>
     </row>
@@ -4290,16 +4326,16 @@
       <c r="F112" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="G112" s="8">
+      <c r="G112" s="12">
         <v>2.15</v>
       </c>
-      <c r="H112" s="8">
+      <c r="H112" s="12">
         <v>301</v>
       </c>
       <c r="I112" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="J112" s="8">
+      <c r="J112" s="12">
         <v>2.15</v>
       </c>
     </row>
@@ -4322,16 +4358,16 @@
       <c r="F113" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="G113" s="8">
+      <c r="G113" s="12">
         <v>0.84</v>
       </c>
-      <c r="H113" s="8">
+      <c r="H113" s="12">
         <v>50.4</v>
       </c>
       <c r="I113" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="J113" s="8">
+      <c r="J113" s="12">
         <v>0.84</v>
       </c>
     </row>
@@ -4354,16 +4390,16 @@
       <c r="F114" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="G114" s="8">
+      <c r="G114" s="12">
         <v>1.36</v>
       </c>
-      <c r="H114" s="8">
+      <c r="H114" s="12">
         <v>40.8</v>
       </c>
       <c r="I114" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="J114" s="8">
+      <c r="J114" s="12">
         <v>1.36</v>
       </c>
     </row>
@@ -4386,16 +4422,16 @@
       <c r="F115" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="G115" s="8">
+      <c r="G115" s="12">
         <v>0.15</v>
       </c>
-      <c r="H115" s="8">
+      <c r="H115" s="12">
         <v>6</v>
       </c>
       <c r="I115" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="J115" s="8">
+      <c r="J115" s="12">
         <v>0.15</v>
       </c>
     </row>
@@ -4418,16 +4454,16 @@
       <c r="F116" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="G116" s="8">
+      <c r="G116" s="12">
         <v>0.15</v>
       </c>
-      <c r="H116" s="8">
+      <c r="H116" s="12">
         <v>15</v>
       </c>
       <c r="I116" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="J116" s="8">
+      <c r="J116" s="12">
         <v>0.15</v>
       </c>
     </row>
@@ -4450,16 +4486,16 @@
       <c r="F117" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="G117" s="8">
+      <c r="G117" s="12">
         <v>0.41</v>
       </c>
-      <c r="H117" s="8">
+      <c r="H117" s="12">
         <v>32.8</v>
       </c>
       <c r="I117" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="J117" s="8">
+      <c r="J117" s="12">
         <v>0.41</v>
       </c>
     </row>
@@ -4482,16 +4518,16 @@
       <c r="F118" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="G118" s="8">
+      <c r="G118" s="12">
         <v>4.56</v>
       </c>
-      <c r="H118" s="8">
+      <c r="H118" s="12">
         <v>136.8</v>
       </c>
       <c r="I118" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="J118" s="8">
+      <c r="J118" s="12">
         <v>4.56</v>
       </c>
     </row>
@@ -4514,16 +4550,16 @@
       <c r="F119" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="G119" s="8">
+      <c r="G119" s="12">
         <v>0.25</v>
       </c>
-      <c r="H119" s="8">
+      <c r="H119" s="12">
         <v>10</v>
       </c>
       <c r="I119" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="J119" s="8">
+      <c r="J119" s="12">
         <v>0.25</v>
       </c>
     </row>
@@ -4546,16 +4582,16 @@
       <c r="F120" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="G120" s="8">
+      <c r="G120" s="12">
         <v>0.36</v>
       </c>
-      <c r="H120" s="8">
+      <c r="H120" s="12">
         <v>18</v>
       </c>
       <c r="I120" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="J120" s="8">
+      <c r="J120" s="12">
         <v>0.36</v>
       </c>
     </row>
@@ -4578,16 +4614,16 @@
       <c r="F121" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="G121" s="8">
+      <c r="G121" s="12">
         <v>0.9</v>
       </c>
-      <c r="H121" s="8">
+      <c r="H121" s="12">
         <v>36</v>
       </c>
       <c r="I121" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="J121" s="8">
+      <c r="J121" s="12">
         <v>0.9</v>
       </c>
     </row>
@@ -4610,16 +4646,16 @@
       <c r="F122" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="G122" s="8">
+      <c r="G122" s="12">
         <v>4.5</v>
       </c>
-      <c r="H122" s="8">
+      <c r="H122" s="12">
         <v>675</v>
       </c>
       <c r="I122" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="J122" s="8">
+      <c r="J122" s="12">
         <v>4.5</v>
       </c>
     </row>
@@ -4642,16 +4678,16 @@
       <c r="F123" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="G123" s="8">
+      <c r="G123" s="12">
         <v>54.57</v>
       </c>
-      <c r="H123" s="8">
+      <c r="H123" s="12">
         <v>218.28</v>
       </c>
       <c r="I123" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="J123" s="8">
+      <c r="J123" s="12">
         <v>54.57</v>
       </c>
     </row>
@@ -4674,16 +4710,16 @@
       <c r="F124" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="G124" s="8">
+      <c r="G124" s="12">
         <v>15.5</v>
       </c>
-      <c r="H124" s="8">
+      <c r="H124" s="12">
         <v>387.5</v>
       </c>
       <c r="I124" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="J124" s="8">
+      <c r="J124" s="12">
         <v>15.5</v>
       </c>
     </row>
@@ -4706,16 +4742,16 @@
       <c r="F125" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="G125" s="8">
+      <c r="G125" s="12">
         <v>0.28</v>
       </c>
-      <c r="H125" s="8">
+      <c r="H125" s="12">
         <v>140</v>
       </c>
       <c r="I125" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="J125" s="8">
+      <c r="J125" s="12">
         <v>0.28</v>
       </c>
     </row>
@@ -4738,16 +4774,16 @@
       <c r="F126" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="G126" s="8">
+      <c r="G126" s="12">
         <v>0.95</v>
       </c>
-      <c r="H126" s="8">
+      <c r="H126" s="12">
         <v>256.5</v>
       </c>
       <c r="I126" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="J126" s="8">
+      <c r="J126" s="12">
         <v>0.95</v>
       </c>
     </row>
@@ -4770,16 +4806,16 @@
       <c r="F127" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="G127" s="8">
+      <c r="G127" s="12">
         <v>0.28</v>
       </c>
-      <c r="H127" s="8">
+      <c r="H127" s="12">
         <v>56</v>
       </c>
       <c r="I127" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="J127" s="8">
+      <c r="J127" s="12">
         <v>0.28</v>
       </c>
     </row>
@@ -4802,16 +4838,16 @@
       <c r="F128" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="G128" s="8">
+      <c r="G128" s="12">
         <v>57.9</v>
       </c>
-      <c r="H128" s="8">
+      <c r="H128" s="12">
         <v>1158</v>
       </c>
       <c r="I128" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="J128" s="8">
+      <c r="J128" s="12">
         <v>57.9</v>
       </c>
     </row>
@@ -4834,16 +4870,16 @@
       <c r="F129" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="G129" s="8">
+      <c r="G129" s="12">
         <v>46.24</v>
       </c>
-      <c r="H129" s="8">
+      <c r="H129" s="12">
         <v>369.92</v>
       </c>
       <c r="I129" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="J129" s="8">
+      <c r="J129" s="12">
         <v>46.24</v>
       </c>
     </row>
@@ -4866,16 +4902,16 @@
       <c r="F130" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="G130" s="8">
+      <c r="G130" s="12">
         <v>13.5</v>
       </c>
-      <c r="H130" s="8">
+      <c r="H130" s="12">
         <v>337.5</v>
       </c>
       <c r="I130" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="J130" s="8">
+      <c r="J130" s="12">
         <v>13.5</v>
       </c>
     </row>
@@ -4898,16 +4934,16 @@
       <c r="F131" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="G131" s="8">
+      <c r="G131" s="12">
         <v>26</v>
       </c>
-      <c r="H131" s="8">
+      <c r="H131" s="12">
         <v>156</v>
       </c>
       <c r="I131" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="J131" s="8">
+      <c r="J131" s="12">
         <v>26</v>
       </c>
     </row>
@@ -4930,16 +4966,16 @@
       <c r="F132" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="G132" s="8">
+      <c r="G132" s="12">
         <v>3.5</v>
       </c>
-      <c r="H132" s="8">
+      <c r="H132" s="12">
         <v>175</v>
       </c>
       <c r="I132" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="J132" s="8">
+      <c r="J132" s="12">
         <v>3.5</v>
       </c>
     </row>
@@ -4962,16 +4998,16 @@
       <c r="F133" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="G133" s="8">
+      <c r="G133" s="12">
         <v>1.23</v>
       </c>
-      <c r="H133" s="8">
+      <c r="H133" s="12">
         <v>104.55</v>
       </c>
       <c r="I133" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="J133" s="8">
+      <c r="J133" s="12">
         <v>1.23</v>
       </c>
     </row>
@@ -4994,16 +5030,16 @@
       <c r="F134" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="G134" s="8">
+      <c r="G134" s="12">
         <v>1.67</v>
       </c>
-      <c r="H134" s="8">
+      <c r="H134" s="12">
         <v>160.32</v>
       </c>
       <c r="I134" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="J134" s="8">
+      <c r="J134" s="12">
         <v>1.67</v>
       </c>
     </row>
@@ -5026,16 +5062,16 @@
       <c r="F135" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="G135" s="8">
+      <c r="G135" s="12">
         <v>2.37</v>
       </c>
-      <c r="H135" s="8">
+      <c r="H135" s="12">
         <v>213.3</v>
       </c>
       <c r="I135" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="J135" s="8">
+      <c r="J135" s="12">
         <v>2.37</v>
       </c>
     </row>
@@ -5058,16 +5094,16 @@
       <c r="F136" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="G136" s="8">
+      <c r="G136" s="12">
         <v>3.69</v>
       </c>
-      <c r="H136" s="8">
+      <c r="H136" s="12">
         <v>265.68</v>
       </c>
       <c r="I136" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="J136" s="8">
+      <c r="J136" s="12">
         <v>3.69</v>
       </c>
     </row>
@@ -5090,16 +5126,16 @@
       <c r="F137" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="G137" s="8">
+      <c r="G137" s="12">
         <v>5.2</v>
       </c>
-      <c r="H137" s="8">
+      <c r="H137" s="12">
         <v>436.8</v>
       </c>
       <c r="I137" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="J137" s="8">
+      <c r="J137" s="12">
         <v>5.2</v>
       </c>
     </row>
@@ -5122,16 +5158,16 @@
       <c r="F138" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="G138" s="8">
+      <c r="G138" s="12">
         <v>1.16</v>
       </c>
-      <c r="H138" s="8">
+      <c r="H138" s="12">
         <v>58</v>
       </c>
       <c r="I138" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="J138" s="8">
+      <c r="J138" s="12">
         <v>1.16</v>
       </c>
     </row>
@@ -5154,16 +5190,16 @@
       <c r="F139" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="G139" s="8">
+      <c r="G139" s="12">
         <v>1.72</v>
       </c>
-      <c r="H139" s="8">
+      <c r="H139" s="12">
         <v>82.56</v>
       </c>
       <c r="I139" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="J139" s="8">
+      <c r="J139" s="12">
         <v>1.72</v>
       </c>
     </row>
@@ -5186,16 +5222,16 @@
       <c r="F140" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="G140" s="8">
+      <c r="G140" s="12">
         <v>3.92</v>
       </c>
-      <c r="H140" s="8">
+      <c r="H140" s="12">
         <v>82.32</v>
       </c>
       <c r="I140" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="J140" s="8">
+      <c r="J140" s="12">
         <v>3.92</v>
       </c>
     </row>
@@ -5218,16 +5254,16 @@
       <c r="F141" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="G141" s="8">
+      <c r="G141" s="12">
         <v>1.55</v>
       </c>
-      <c r="H141" s="8">
+      <c r="H141" s="12">
         <v>62</v>
       </c>
       <c r="I141" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="J141" s="8">
+      <c r="J141" s="12">
         <v>1.55</v>
       </c>
     </row>
@@ -5250,16 +5286,16 @@
       <c r="F142" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="G142" s="8">
+      <c r="G142" s="12">
         <v>0.36</v>
       </c>
-      <c r="H142" s="8">
+      <c r="H142" s="12">
         <v>63</v>
       </c>
       <c r="I142" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="J142" s="8">
+      <c r="J142" s="12">
         <v>0.36</v>
       </c>
     </row>
@@ -5282,16 +5318,16 @@
       <c r="F143" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="G143" s="8">
+      <c r="G143" s="12">
         <v>0.38</v>
       </c>
-      <c r="H143" s="8">
+      <c r="H143" s="12">
         <v>38</v>
       </c>
       <c r="I143" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="J143" s="8">
+      <c r="J143" s="12">
         <v>0.38</v>
       </c>
     </row>
@@ -5314,16 +5350,16 @@
       <c r="F144" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="G144" s="8">
+      <c r="G144" s="12">
         <v>0.38</v>
       </c>
-      <c r="H144" s="8">
+      <c r="H144" s="12">
         <v>66.5</v>
       </c>
       <c r="I144" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="J144" s="8">
+      <c r="J144" s="12">
         <v>0.38</v>
       </c>
     </row>
@@ -5346,16 +5382,16 @@
       <c r="F145" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="G145" s="8">
+      <c r="G145" s="12">
         <v>1.03</v>
       </c>
-      <c r="H145" s="8">
+      <c r="H145" s="12">
         <v>148.32</v>
       </c>
       <c r="I145" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="J145" s="8">
+      <c r="J145" s="12">
         <v>1.03</v>
       </c>
     </row>
@@ -5378,16 +5414,16 @@
       <c r="F146" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="G146" s="8">
+      <c r="G146" s="12">
         <v>0.59</v>
       </c>
-      <c r="H146" s="8">
+      <c r="H146" s="12">
         <v>29.5</v>
       </c>
       <c r="I146" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="J146" s="8">
+      <c r="J146" s="12">
         <v>0.59</v>
       </c>
     </row>
@@ -5410,16 +5446,16 @@
       <c r="F147" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="G147" s="8">
+      <c r="G147" s="12">
         <v>7.06</v>
       </c>
-      <c r="H147" s="8">
+      <c r="H147" s="12">
         <v>508.32</v>
       </c>
       <c r="I147" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="J147" s="8">
+      <c r="J147" s="12">
         <v>7.06</v>
       </c>
     </row>
@@ -5442,16 +5478,16 @@
       <c r="F148" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="G148" s="8">
+      <c r="G148" s="12">
         <v>12.76</v>
       </c>
-      <c r="H148" s="8">
+      <c r="H148" s="12">
         <v>127.6</v>
       </c>
       <c r="I148" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="J148" s="8">
+      <c r="J148" s="12">
         <v>12.76</v>
       </c>
     </row>
@@ -5474,16 +5510,16 @@
       <c r="F149" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="G149" s="8">
+      <c r="G149" s="12">
         <v>6.75</v>
       </c>
-      <c r="H149" s="8">
+      <c r="H149" s="12">
         <v>256.5</v>
       </c>
       <c r="I149" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="J149" s="8">
+      <c r="J149" s="12">
         <v>6.75</v>
       </c>
     </row>
@@ -5506,16 +5542,16 @@
       <c r="F150" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="G150" s="8">
+      <c r="G150" s="12">
         <v>15.09</v>
       </c>
-      <c r="H150" s="8">
+      <c r="H150" s="12">
         <v>30.18</v>
       </c>
       <c r="I150" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="J150" s="8">
+      <c r="J150" s="12">
         <v>15.09</v>
       </c>
     </row>
@@ -5538,16 +5574,16 @@
       <c r="F151" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="G151" s="8">
+      <c r="G151" s="12">
         <v>0.69</v>
       </c>
-      <c r="H151" s="8">
+      <c r="H151" s="12">
         <v>138</v>
       </c>
       <c r="I151" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="J151" s="8">
+      <c r="J151" s="12">
         <v>0.69</v>
       </c>
     </row>
@@ -5570,16 +5606,16 @@
       <c r="F152" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="G152" s="8">
+      <c r="G152" s="12">
         <v>1.12</v>
       </c>
-      <c r="H152" s="8">
+      <c r="H152" s="12">
         <v>56</v>
       </c>
       <c r="I152" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="J152" s="8">
+      <c r="J152" s="12">
         <v>1.12</v>
       </c>
     </row>
@@ -5602,16 +5638,16 @@
       <c r="F153" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="G153" s="8">
+      <c r="G153" s="12">
         <v>1.44</v>
       </c>
-      <c r="H153" s="8">
+      <c r="H153" s="12">
         <v>72</v>
       </c>
       <c r="I153" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="J153" s="8">
+      <c r="J153" s="12">
         <v>1.44</v>
       </c>
     </row>
@@ -5634,16 +5670,16 @@
       <c r="F154" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="G154" s="8">
+      <c r="G154" s="12">
         <v>1.13</v>
       </c>
-      <c r="H154" s="8">
+      <c r="H154" s="12">
         <v>56.5</v>
       </c>
       <c r="I154" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="J154" s="8">
+      <c r="J154" s="12">
         <v>1.13</v>
       </c>
     </row>
@@ -5666,16 +5702,16 @@
       <c r="F155" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="G155" s="8">
+      <c r="G155" s="12">
         <v>1.27</v>
       </c>
-      <c r="H155" s="8">
+      <c r="H155" s="12">
         <v>63.5</v>
       </c>
       <c r="I155" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="J155" s="8">
+      <c r="J155" s="12">
         <v>1.27</v>
       </c>
     </row>
@@ -5698,16 +5734,16 @@
       <c r="F156" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="G156" s="8">
+      <c r="G156" s="12">
         <v>1.31</v>
       </c>
-      <c r="H156" s="8">
+      <c r="H156" s="12">
         <v>39.3</v>
       </c>
       <c r="I156" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="J156" s="8">
+      <c r="J156" s="12">
         <v>1.31</v>
       </c>
     </row>
@@ -5730,16 +5766,16 @@
       <c r="F157" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="G157" s="8">
+      <c r="G157" s="12">
         <v>4.73</v>
       </c>
-      <c r="H157" s="8">
+      <c r="H157" s="12">
         <v>141.9</v>
       </c>
       <c r="I157" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="J157" s="8">
+      <c r="J157" s="12">
         <v>4.73</v>
       </c>
     </row>
@@ -5762,16 +5798,16 @@
       <c r="F158" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="G158" s="8">
+      <c r="G158" s="12">
         <v>1.62</v>
       </c>
-      <c r="H158" s="8">
+      <c r="H158" s="12">
         <v>64.8</v>
       </c>
       <c r="I158" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="J158" s="8">
+      <c r="J158" s="12">
         <v>1.62</v>
       </c>
     </row>
@@ -5794,16 +5830,16 @@
       <c r="F159" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="G159" s="8">
+      <c r="G159" s="12">
         <v>1.43</v>
       </c>
-      <c r="H159" s="8">
+      <c r="H159" s="12">
         <v>71.5</v>
       </c>
       <c r="I159" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="J159" s="8">
+      <c r="J159" s="12">
         <v>1.43</v>
       </c>
     </row>
@@ -5826,16 +5862,16 @@
       <c r="F160" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="G160" s="8">
+      <c r="G160" s="12">
         <v>1.77</v>
       </c>
-      <c r="H160" s="8">
+      <c r="H160" s="12">
         <v>88.5</v>
       </c>
       <c r="I160" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="J160" s="8">
+      <c r="J160" s="12">
         <v>1.77</v>
       </c>
     </row>
@@ -5858,16 +5894,16 @@
       <c r="F161" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="G161" s="8">
+      <c r="G161" s="12">
         <v>19.6</v>
       </c>
-      <c r="H161" s="8">
+      <c r="H161" s="12">
         <v>470.4</v>
       </c>
       <c r="I161" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="J161" s="8">
+      <c r="J161" s="12">
         <v>19.6</v>
       </c>
     </row>
@@ -5890,16 +5926,16 @@
       <c r="F162" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="G162" s="8">
+      <c r="G162" s="12">
         <v>0.59</v>
       </c>
-      <c r="H162" s="8">
+      <c r="H162" s="12">
         <v>59</v>
       </c>
       <c r="I162" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="J162" s="8">
+      <c r="J162" s="12">
         <v>0.59</v>
       </c>
     </row>
@@ -5922,16 +5958,16 @@
       <c r="F163" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="G163" s="8">
+      <c r="G163" s="12">
         <v>1.5</v>
       </c>
-      <c r="H163" s="8">
+      <c r="H163" s="12">
         <v>45</v>
       </c>
       <c r="I163" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="J163" s="8">
+      <c r="J163" s="12">
         <v>1.5</v>
       </c>
     </row>
@@ -5954,16 +5990,16 @@
       <c r="F164" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="G164" s="8">
+      <c r="G164" s="12">
         <v>1.97</v>
       </c>
-      <c r="H164" s="8">
+      <c r="H164" s="12">
         <v>98.5</v>
       </c>
       <c r="I164" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="J164" s="8">
+      <c r="J164" s="12">
         <v>1.97</v>
       </c>
     </row>
@@ -5986,16 +6022,16 @@
       <c r="F165" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="G165" s="8">
+      <c r="G165" s="12">
         <v>3.91</v>
       </c>
-      <c r="H165" s="8">
+      <c r="H165" s="12">
         <v>78.2</v>
       </c>
       <c r="I165" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="J165" s="8">
+      <c r="J165" s="12">
         <v>3.91</v>
       </c>
     </row>
@@ -6018,16 +6054,16 @@
       <c r="F166" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="G166" s="8">
+      <c r="G166" s="12">
         <v>21.4</v>
       </c>
-      <c r="H166" s="8">
+      <c r="H166" s="12">
         <v>214</v>
       </c>
       <c r="I166" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="J166" s="8">
+      <c r="J166" s="12">
         <v>21.4</v>
       </c>
     </row>
@@ -6050,16 +6086,16 @@
       <c r="F167" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="G167" s="8">
+      <c r="G167" s="12">
         <v>63.84</v>
       </c>
-      <c r="H167" s="8">
+      <c r="H167" s="12">
         <v>319.2</v>
       </c>
       <c r="I167" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="J167" s="8">
+      <c r="J167" s="12">
         <v>63.84</v>
       </c>
     </row>
@@ -6082,16 +6118,16 @@
       <c r="F168" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="G168" s="8">
+      <c r="G168" s="12">
         <v>9.12</v>
       </c>
-      <c r="H168" s="8">
+      <c r="H168" s="12">
         <v>91.2</v>
       </c>
       <c r="I168" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="J168" s="8">
+      <c r="J168" s="12">
         <v>9.12</v>
       </c>
     </row>
@@ -6114,16 +6150,16 @@
       <c r="F169" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="G169" s="8">
+      <c r="G169" s="12">
         <v>2.5</v>
       </c>
-      <c r="H169" s="8">
+      <c r="H169" s="12">
         <v>75</v>
       </c>
       <c r="I169" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="J169" s="8">
+      <c r="J169" s="12">
         <v>2.5</v>
       </c>
     </row>
@@ -6146,16 +6182,16 @@
       <c r="F170" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="G170" s="8">
+      <c r="G170" s="12">
         <v>350</v>
       </c>
-      <c r="H170" s="8">
+      <c r="H170" s="12">
         <v>700</v>
       </c>
       <c r="I170" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="J170" s="8">
+      <c r="J170" s="12">
         <v>350</v>
       </c>
     </row>
@@ -6178,16 +6214,16 @@
       <c r="F171" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="G171" s="8">
+      <c r="G171" s="12">
         <v>13.73</v>
       </c>
-      <c r="H171" s="8">
+      <c r="H171" s="12">
         <v>54.92</v>
       </c>
       <c r="I171" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="J171" s="8">
+      <c r="J171" s="12">
         <v>13.73</v>
       </c>
     </row>
@@ -6210,16 +6246,16 @@
       <c r="F172" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="G172" s="8">
+      <c r="G172" s="12">
         <v>2.99</v>
       </c>
-      <c r="H172" s="8">
+      <c r="H172" s="12">
         <v>149.5</v>
       </c>
       <c r="I172" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="J172" s="8">
+      <c r="J172" s="12">
         <v>2.99</v>
       </c>
     </row>
@@ -6242,16 +6278,16 @@
       <c r="F173" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="G173" s="8">
+      <c r="G173" s="12">
         <v>5.89</v>
       </c>
-      <c r="H173" s="8">
+      <c r="H173" s="12">
         <v>353.4</v>
       </c>
       <c r="I173" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="J173" s="8">
+      <c r="J173" s="12">
         <v>5.89</v>
       </c>
     </row>
@@ -6274,16 +6310,16 @@
       <c r="F174" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="G174" s="8">
+      <c r="G174" s="12">
         <v>7.32</v>
       </c>
-      <c r="H174" s="8">
+      <c r="H174" s="12">
         <v>292.8</v>
       </c>
       <c r="I174" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="J174" s="8">
+      <c r="J174" s="12">
         <v>7.32</v>
       </c>
     </row>
@@ -6306,16 +6342,16 @@
       <c r="F175" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="G175" s="8">
+      <c r="G175" s="12">
         <v>2.6</v>
       </c>
-      <c r="H175" s="8">
+      <c r="H175" s="12">
         <v>78</v>
       </c>
       <c r="I175" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="J175" s="8">
+      <c r="J175" s="12">
         <v>2.6</v>
       </c>
     </row>
@@ -6338,16 +6374,16 @@
       <c r="F176" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="G176" s="8">
+      <c r="G176" s="12">
         <v>3.25</v>
       </c>
-      <c r="H176" s="8">
+      <c r="H176" s="12">
         <v>97.5</v>
       </c>
       <c r="I176" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="J176" s="8">
+      <c r="J176" s="12">
         <v>3.25</v>
       </c>
     </row>
@@ -6370,16 +6406,16 @@
       <c r="F177" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="G177" s="8">
+      <c r="G177" s="12">
         <v>6</v>
       </c>
-      <c r="H177" s="8">
+      <c r="H177" s="12">
         <v>60</v>
       </c>
       <c r="I177" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="J177" s="8">
+      <c r="J177" s="12">
         <v>6</v>
       </c>
     </row>
@@ -6402,16 +6438,16 @@
       <c r="F178" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="G178" s="8">
+      <c r="G178" s="12">
         <v>14.5</v>
       </c>
-      <c r="H178" s="8">
+      <c r="H178" s="12">
         <v>203</v>
       </c>
       <c r="I178" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="J178" s="8">
+      <c r="J178" s="12">
         <v>14.5</v>
       </c>
     </row>
@@ -6434,16 +6470,16 @@
       <c r="F179" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="G179" s="8">
+      <c r="G179" s="12">
         <v>38</v>
       </c>
-      <c r="H179" s="8">
+      <c r="H179" s="12">
         <v>228</v>
       </c>
       <c r="I179" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="J179" s="8">
+      <c r="J179" s="12">
         <v>38</v>
       </c>
     </row>
@@ -6466,16 +6502,16 @@
       <c r="F180" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="G180" s="8">
+      <c r="G180" s="12">
         <v>230</v>
       </c>
-      <c r="H180" s="8">
+      <c r="H180" s="12">
         <v>460</v>
       </c>
       <c r="I180" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="J180" s="8">
+      <c r="J180" s="12">
         <v>230</v>
       </c>
     </row>
@@ -6498,16 +6534,16 @@
       <c r="F181" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="G181" s="8">
+      <c r="G181" s="12">
         <v>28.6</v>
       </c>
-      <c r="H181" s="8">
+      <c r="H181" s="12">
         <v>286</v>
       </c>
       <c r="I181" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="J181" s="8">
+      <c r="J181" s="12">
         <v>28.6</v>
       </c>
     </row>
@@ -6530,16 +6566,16 @@
       <c r="F182" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="G182" s="8">
+      <c r="G182" s="12">
         <v>29.5</v>
       </c>
-      <c r="H182" s="8">
+      <c r="H182" s="12">
         <v>472</v>
       </c>
       <c r="I182" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="J182" s="8">
+      <c r="J182" s="12">
         <v>29.5</v>
       </c>
     </row>
@@ -6562,16 +6598,16 @@
       <c r="F183" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="G183" s="8">
+      <c r="G183" s="12">
         <v>12.62</v>
       </c>
-      <c r="H183" s="8">
+      <c r="H183" s="12">
         <v>378.6</v>
       </c>
       <c r="I183" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="J183" s="8">
+      <c r="J183" s="12">
         <v>12.62</v>
       </c>
     </row>
@@ -6594,16 +6630,16 @@
       <c r="F184" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="G184" s="8">
+      <c r="G184" s="12">
         <v>38.9</v>
       </c>
-      <c r="H184" s="8">
+      <c r="H184" s="12">
         <v>778</v>
       </c>
       <c r="I184" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="J184" s="8">
+      <c r="J184" s="12">
         <v>38.9</v>
       </c>
     </row>
@@ -6626,16 +6662,16 @@
       <c r="F185" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="G185" s="8">
+      <c r="G185" s="12">
         <v>64.39</v>
       </c>
-      <c r="H185" s="8">
+      <c r="H185" s="12">
         <v>643.9</v>
       </c>
       <c r="I185" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="J185" s="8">
+      <c r="J185" s="12">
         <v>64.39</v>
       </c>
     </row>
@@ -6658,16 +6694,16 @@
       <c r="F186" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="G186" s="8">
+      <c r="G186" s="12">
         <v>34.83</v>
       </c>
-      <c r="H186" s="8">
+      <c r="H186" s="12">
         <v>696.6</v>
       </c>
       <c r="I186" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="J186" s="8">
+      <c r="J186" s="12">
         <v>34.83</v>
       </c>
     </row>
@@ -6690,16 +6726,16 @@
       <c r="F187" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="G187" s="8">
+      <c r="G187" s="12">
         <v>190</v>
       </c>
-      <c r="H187" s="8">
+      <c r="H187" s="12">
         <v>1900</v>
       </c>
       <c r="I187" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="J187" s="8">
+      <c r="J187" s="12">
         <v>190</v>
       </c>
     </row>
@@ -6722,16 +6758,16 @@
       <c r="F188" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="G188" s="8">
+      <c r="G188" s="12">
         <v>65</v>
       </c>
-      <c r="H188" s="8">
+      <c r="H188" s="12">
         <v>390</v>
       </c>
       <c r="I188" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="J188" s="8">
+      <c r="J188" s="12">
         <v>65</v>
       </c>
     </row>
@@ -6754,16 +6790,16 @@
       <c r="F189" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="G189" s="8">
+      <c r="G189" s="12">
         <v>73.97</v>
       </c>
-      <c r="H189" s="8">
+      <c r="H189" s="12">
         <v>443.82</v>
       </c>
       <c r="I189" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="J189" s="8">
+      <c r="J189" s="12">
         <v>73.97</v>
       </c>
     </row>
@@ -6786,16 +6822,16 @@
       <c r="F190" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="G190" s="8">
+      <c r="G190" s="12">
         <v>22.5</v>
       </c>
-      <c r="H190" s="8">
+      <c r="H190" s="12">
         <v>540</v>
       </c>
       <c r="I190" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="J190" s="8">
+      <c r="J190" s="12">
         <v>22.5</v>
       </c>
     </row>
@@ -6818,16 +6854,16 @@
       <c r="F191" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="G191" s="8">
+      <c r="G191" s="12">
         <v>60.5</v>
       </c>
-      <c r="H191" s="8">
+      <c r="H191" s="12">
         <v>1210</v>
       </c>
       <c r="I191" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="J191" s="8">
+      <c r="J191" s="12">
         <v>60.5</v>
       </c>
     </row>
@@ -6850,16 +6886,16 @@
       <c r="F192" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="G192" s="8">
+      <c r="G192" s="12">
         <v>62</v>
       </c>
-      <c r="H192" s="8">
+      <c r="H192" s="12">
         <v>1240</v>
       </c>
       <c r="I192" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="J192" s="8">
+      <c r="J192" s="12">
         <v>62</v>
       </c>
     </row>
@@ -6882,16 +6918,16 @@
       <c r="F193" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="G193" s="8">
+      <c r="G193" s="12">
         <v>175</v>
       </c>
-      <c r="H193" s="8">
+      <c r="H193" s="12">
         <v>1750</v>
       </c>
       <c r="I193" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="J193" s="8">
+      <c r="J193" s="12">
         <v>175</v>
       </c>
     </row>
@@ -6914,16 +6950,16 @@
       <c r="F194" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="G194" s="8">
+      <c r="G194" s="12">
         <v>200</v>
       </c>
-      <c r="H194" s="8">
+      <c r="H194" s="12">
         <v>400</v>
       </c>
       <c r="I194" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="J194" s="8">
+      <c r="J194" s="12">
         <v>200</v>
       </c>
     </row>
@@ -6946,16 +6982,16 @@
       <c r="F195" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="G195" s="8">
+      <c r="G195" s="12">
         <v>5.17</v>
       </c>
-      <c r="H195" s="8">
+      <c r="H195" s="12">
         <v>310.2</v>
       </c>
       <c r="I195" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="J195" s="8">
+      <c r="J195" s="12">
         <v>5.17</v>
       </c>
     </row>
@@ -6978,16 +7014,16 @@
       <c r="F196" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="G196" s="8">
+      <c r="G196" s="12">
         <v>2.9</v>
       </c>
-      <c r="H196" s="8">
+      <c r="H196" s="12">
         <v>145</v>
       </c>
       <c r="I196" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="J196" s="8">
+      <c r="J196" s="12">
         <v>2.9</v>
       </c>
     </row>
@@ -7010,16 +7046,16 @@
       <c r="F197" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="G197" s="8">
+      <c r="G197" s="12">
         <v>3.28</v>
       </c>
-      <c r="H197" s="8">
+      <c r="H197" s="12">
         <v>472.32</v>
       </c>
       <c r="I197" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="J197" s="8">
+      <c r="J197" s="12">
         <v>3.28</v>
       </c>
     </row>
@@ -7042,16 +7078,16 @@
       <c r="F198" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="G198" s="8">
+      <c r="G198" s="12">
         <v>8.1</v>
       </c>
-      <c r="H198" s="8">
+      <c r="H198" s="12">
         <v>162</v>
       </c>
       <c r="I198" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="J198" s="8">
+      <c r="J198" s="12">
         <v>8.1</v>
       </c>
     </row>
@@ -7074,16 +7110,16 @@
       <c r="F199" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="G199" s="8">
+      <c r="G199" s="12">
         <v>2.9</v>
       </c>
-      <c r="H199" s="8">
+      <c r="H199" s="12">
         <v>290</v>
       </c>
       <c r="I199" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="J199" s="8">
+      <c r="J199" s="12">
         <v>2.9</v>
       </c>
     </row>
@@ -7106,16 +7142,16 @@
       <c r="F200" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="G200" s="8">
+      <c r="G200" s="12">
         <v>1.02</v>
       </c>
-      <c r="H200" s="8">
+      <c r="H200" s="12">
         <v>51</v>
       </c>
       <c r="I200" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="J200" s="8">
+      <c r="J200" s="12">
         <v>1.02</v>
       </c>
     </row>
@@ -7138,16 +7174,16 @@
       <c r="F201" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="G201" s="8">
+      <c r="G201" s="12">
         <v>1.09</v>
       </c>
-      <c r="H201" s="8">
+      <c r="H201" s="12">
         <v>109</v>
       </c>
       <c r="I201" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="J201" s="8">
+      <c r="J201" s="12">
         <v>1.09</v>
       </c>
     </row>
@@ -7170,16 +7206,16 @@
       <c r="F202" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="G202" s="8">
+      <c r="G202" s="12">
         <v>10.34</v>
       </c>
-      <c r="H202" s="8">
+      <c r="H202" s="12">
         <v>310.2</v>
       </c>
       <c r="I202" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="J202" s="8">
+      <c r="J202" s="12">
         <v>10.34</v>
       </c>
     </row>
@@ -7202,16 +7238,16 @@
       <c r="F203" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="G203" s="8">
+      <c r="G203" s="12">
         <v>13.95</v>
       </c>
-      <c r="H203" s="8">
+      <c r="H203" s="12">
         <v>418.5</v>
       </c>
       <c r="I203" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="J203" s="8">
+      <c r="J203" s="12">
         <v>13.95</v>
       </c>
     </row>
@@ -7234,16 +7270,16 @@
       <c r="F204" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="G204" s="8">
+      <c r="G204" s="12">
         <v>13.95</v>
       </c>
-      <c r="H204" s="8">
+      <c r="H204" s="12">
         <v>669.6</v>
       </c>
       <c r="I204" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="J204" s="8">
+      <c r="J204" s="12">
         <v>13.95</v>
       </c>
     </row>
@@ -7266,16 +7302,16 @@
       <c r="F205" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="G205" s="8">
+      <c r="G205" s="12">
         <v>24.26</v>
       </c>
-      <c r="H205" s="8">
+      <c r="H205" s="12">
         <v>606.5</v>
       </c>
       <c r="I205" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="J205" s="8">
+      <c r="J205" s="12">
         <v>24.26</v>
       </c>
     </row>
@@ -7298,16 +7334,16 @@
       <c r="F206" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="G206" s="8">
+      <c r="G206" s="12">
         <v>12.13</v>
       </c>
-      <c r="H206" s="8">
+      <c r="H206" s="12">
         <v>242.6</v>
       </c>
       <c r="I206" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="J206" s="8">
+      <c r="J206" s="12">
         <v>12.13</v>
       </c>
     </row>
@@ -7330,16 +7366,16 @@
       <c r="F207" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="G207" s="8">
+      <c r="G207" s="12">
         <v>18.19</v>
       </c>
-      <c r="H207" s="8">
+      <c r="H207" s="12">
         <v>727.6</v>
       </c>
       <c r="I207" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="J207" s="8">
+      <c r="J207" s="12">
         <v>18.19</v>
       </c>
     </row>
@@ -7362,16 +7398,16 @@
       <c r="F208" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="G208" s="8">
+      <c r="G208" s="12">
         <v>28.04</v>
       </c>
-      <c r="H208" s="8">
+      <c r="H208" s="12">
         <v>280.4</v>
       </c>
       <c r="I208" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="J208" s="8">
+      <c r="J208" s="12">
         <v>28.04</v>
       </c>
     </row>
@@ -7394,16 +7430,16 @@
       <c r="F209" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="G209" s="8">
+      <c r="G209" s="12">
         <v>13.64</v>
       </c>
-      <c r="H209" s="8">
+      <c r="H209" s="12">
         <v>136.4</v>
       </c>
       <c r="I209" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="J209" s="8">
+      <c r="J209" s="12">
         <v>13.64</v>
       </c>
     </row>
@@ -7426,16 +7462,16 @@
       <c r="F210" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="G210" s="8">
+      <c r="G210" s="12">
         <v>13.64</v>
       </c>
-      <c r="H210" s="8">
+      <c r="H210" s="12">
         <v>409.2</v>
       </c>
       <c r="I210" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="J210" s="8">
+      <c r="J210" s="12">
         <v>13.64</v>
       </c>
     </row>
@@ -7458,16 +7494,16 @@
       <c r="F211" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="G211" s="8">
+      <c r="G211" s="12">
         <v>17.54</v>
       </c>
-      <c r="H211" s="8">
+      <c r="H211" s="12">
         <v>526.2</v>
       </c>
       <c r="I211" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="J211" s="8">
+      <c r="J211" s="12">
         <v>17.54</v>
       </c>
     </row>
@@ -7490,16 +7526,16 @@
       <c r="F212" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="G212" s="8">
+      <c r="G212" s="12">
         <v>26.06</v>
       </c>
-      <c r="H212" s="8">
+      <c r="H212" s="12">
         <v>521.2</v>
       </c>
       <c r="I212" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="J212" s="8">
+      <c r="J212" s="12">
         <v>26.06</v>
       </c>
     </row>
@@ -7522,16 +7558,16 @@
       <c r="F213" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="G213" s="8">
+      <c r="G213" s="12">
         <v>23.89</v>
       </c>
-      <c r="H213" s="8">
+      <c r="H213" s="12">
         <v>358.35</v>
       </c>
       <c r="I213" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="J213" s="8">
+      <c r="J213" s="12">
         <v>23.89</v>
       </c>
     </row>
@@ -7554,16 +7590,16 @@
       <c r="F214" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="G214" s="8">
+      <c r="G214" s="12">
         <v>1.58</v>
       </c>
-      <c r="H214" s="8">
+      <c r="H214" s="12">
         <v>79</v>
       </c>
       <c r="I214" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="J214" s="8">
+      <c r="J214" s="12">
         <v>1.58</v>
       </c>
     </row>
@@ -7586,16 +7622,16 @@
       <c r="F215" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="G215" s="8">
+      <c r="G215" s="12">
         <v>6.64</v>
       </c>
-      <c r="H215" s="8">
+      <c r="H215" s="12">
         <v>199.2</v>
       </c>
       <c r="I215" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="J215" s="8">
+      <c r="J215" s="12">
         <v>6.64</v>
       </c>
     </row>
@@ -7618,16 +7654,16 @@
       <c r="F216" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="G216" s="8">
+      <c r="G216" s="12">
         <v>3.08</v>
       </c>
-      <c r="H216" s="8">
+      <c r="H216" s="12">
         <v>61.6</v>
       </c>
       <c r="I216" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="J216" s="8">
+      <c r="J216" s="12">
         <v>3.08</v>
       </c>
     </row>
@@ -7650,16 +7686,16 @@
       <c r="F217" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="G217" s="8">
+      <c r="G217" s="12">
         <v>3.38</v>
       </c>
-      <c r="H217" s="8">
+      <c r="H217" s="12">
         <v>67.6</v>
       </c>
       <c r="I217" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="J217" s="8">
+      <c r="J217" s="12">
         <v>3.38</v>
       </c>
     </row>
@@ -7682,16 +7718,16 @@
       <c r="F218" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="G218" s="8">
+      <c r="G218" s="12">
         <v>1.16</v>
       </c>
-      <c r="H218" s="8">
+      <c r="H218" s="12">
         <v>116</v>
       </c>
       <c r="I218" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="J218" s="8">
+      <c r="J218" s="12">
         <v>1.16</v>
       </c>
     </row>
@@ -7714,16 +7750,16 @@
       <c r="F219" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="G219" s="8">
+      <c r="G219" s="12">
         <v>1.97</v>
       </c>
-      <c r="H219" s="8">
+      <c r="H219" s="12">
         <v>98.5</v>
       </c>
       <c r="I219" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="J219" s="8">
+      <c r="J219" s="12">
         <v>1.97</v>
       </c>
     </row>
@@ -7746,16 +7782,16 @@
       <c r="F220" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="G220" s="8">
+      <c r="G220" s="12">
         <v>9.19</v>
       </c>
-      <c r="H220" s="8">
+      <c r="H220" s="12">
         <v>578.97</v>
       </c>
       <c r="I220" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="J220" s="8">
+      <c r="J220" s="12">
         <v>9.19</v>
       </c>
     </row>
@@ -7778,16 +7814,16 @@
       <c r="F221" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="G221" s="8">
+      <c r="G221" s="12">
         <v>16.3</v>
       </c>
-      <c r="H221" s="8">
+      <c r="H221" s="12">
         <v>326</v>
       </c>
       <c r="I221" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="J221" s="8">
+      <c r="J221" s="12">
         <v>16.3</v>
       </c>
     </row>
@@ -7810,16 +7846,16 @@
       <c r="F222" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="G222" s="8">
+      <c r="G222" s="12">
         <v>20.02</v>
       </c>
-      <c r="H222" s="8">
+      <c r="H222" s="12">
         <v>400.4</v>
       </c>
       <c r="I222" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="J222" s="8">
+      <c r="J222" s="12">
         <v>20.02</v>
       </c>
     </row>
@@ -7842,16 +7878,16 @@
       <c r="F223" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="G223" s="8">
+      <c r="G223" s="12">
         <v>2.19</v>
       </c>
-      <c r="H223" s="8">
+      <c r="H223" s="12">
         <v>113.88</v>
       </c>
       <c r="I223" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="J223" s="8">
+      <c r="J223" s="12">
         <v>2.19</v>
       </c>
     </row>
@@ -7874,16 +7910,16 @@
       <c r="F224" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="G224" s="8">
+      <c r="G224" s="12">
         <v>2.19</v>
       </c>
-      <c r="H224" s="8">
+      <c r="H224" s="12">
         <v>70.08</v>
       </c>
       <c r="I224" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="J224" s="8">
+      <c r="J224" s="12">
         <v>2.19</v>
       </c>
     </row>
@@ -7906,16 +7942,16 @@
       <c r="F225" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="G225" s="8">
+      <c r="G225" s="12">
         <v>14.5</v>
       </c>
-      <c r="H225" s="8">
+      <c r="H225" s="12">
         <v>145</v>
       </c>
       <c r="I225" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="J225" s="8">
+      <c r="J225" s="12">
         <v>14.5</v>
       </c>
     </row>
@@ -7938,16 +7974,16 @@
       <c r="F226" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="G226" s="8">
+      <c r="G226" s="12">
         <v>63.9</v>
       </c>
-      <c r="H226" s="8">
+      <c r="H226" s="12">
         <v>383.4</v>
       </c>
       <c r="I226" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="J226" s="8">
+      <c r="J226" s="12">
         <v>63.9</v>
       </c>
     </row>
@@ -7970,16 +8006,16 @@
       <c r="F227" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="G227" s="8">
+      <c r="G227" s="12">
         <v>3.28</v>
       </c>
-      <c r="H227" s="8">
+      <c r="H227" s="12">
         <v>157.44</v>
       </c>
       <c r="I227" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="J227" s="8">
+      <c r="J227" s="12">
         <v>3.28</v>
       </c>
     </row>
@@ -8002,16 +8038,16 @@
       <c r="F228" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="G228" s="8">
+      <c r="G228" s="12">
         <v>3.28</v>
       </c>
-      <c r="H228" s="8">
+      <c r="H228" s="12">
         <v>419.84</v>
       </c>
       <c r="I228" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="J228" s="8">
+      <c r="J228" s="12">
         <v>3.28</v>
       </c>
     </row>
@@ -8034,16 +8070,16 @@
       <c r="F229" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="G229" s="8">
+      <c r="G229" s="12">
         <v>5.71</v>
       </c>
-      <c r="H229" s="8">
+      <c r="H229" s="12">
         <v>119.91</v>
       </c>
       <c r="I229" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="J229" s="8">
+      <c r="J229" s="12">
         <v>5.71</v>
       </c>
     </row>
@@ -8066,16 +8102,16 @@
       <c r="F230" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="G230" s="8">
+      <c r="G230" s="12">
         <v>5.71</v>
       </c>
-      <c r="H230" s="8">
+      <c r="H230" s="12">
         <v>119.91</v>
       </c>
       <c r="I230" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="J230" s="8">
+      <c r="J230" s="12">
         <v>5.71</v>
       </c>
     </row>
@@ -8098,16 +8134,16 @@
       <c r="F231" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="G231" s="8">
+      <c r="G231" s="12">
         <v>5.71</v>
       </c>
-      <c r="H231" s="8">
+      <c r="H231" s="12">
         <v>308.34</v>
       </c>
       <c r="I231" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="J231" s="8">
+      <c r="J231" s="12">
         <v>5.71</v>
       </c>
     </row>
@@ -8130,16 +8166,16 @@
       <c r="F232" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="G232" s="8">
+      <c r="G232" s="12">
         <v>7.74</v>
       </c>
-      <c r="H232" s="8">
+      <c r="H232" s="12">
         <v>185.76</v>
       </c>
       <c r="I232" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="J232" s="8">
+      <c r="J232" s="12">
         <v>7.74</v>
       </c>
     </row>
@@ -8162,16 +8198,16 @@
       <c r="F233" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="G233" s="8">
+      <c r="G233" s="12">
         <v>12.32</v>
       </c>
-      <c r="H233" s="8">
+      <c r="H233" s="12">
         <v>246.4</v>
       </c>
       <c r="I233" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="J233" s="8">
+      <c r="J233" s="12">
         <v>12.32</v>
       </c>
     </row>
@@ -8194,16 +8230,16 @@
       <c r="F234" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="G234" s="8">
+      <c r="G234" s="12">
         <v>40.54</v>
       </c>
-      <c r="H234" s="8">
+      <c r="H234" s="12">
         <v>972.96</v>
       </c>
       <c r="I234" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="J234" s="8">
+      <c r="J234" s="12">
         <v>40.54</v>
       </c>
     </row>
@@ -8226,16 +8262,16 @@
       <c r="F235" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="G235" s="8">
+      <c r="G235" s="12">
         <v>7.02</v>
       </c>
-      <c r="H235" s="8">
+      <c r="H235" s="12">
         <v>336.96</v>
       </c>
       <c r="I235" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="J235" s="8">
+      <c r="J235" s="12">
         <v>7.02</v>
       </c>
     </row>
@@ -8258,16 +8294,16 @@
       <c r="F236" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="G236" s="8">
+      <c r="G236" s="12">
         <v>3.28</v>
       </c>
-      <c r="H236" s="8">
+      <c r="H236" s="12">
         <v>104.96</v>
       </c>
       <c r="I236" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="J236" s="8">
+      <c r="J236" s="12">
         <v>3.28</v>
       </c>
     </row>
@@ -8290,19 +8326,19 @@
       <c r="F238" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="G238" s="8">
+      <c r="G238" s="12">
         <v>0</v>
       </c>
       <c r="H238" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="I238" s="8">
+      <c r="I238" s="12">
         <v>93716.03</v>
       </c>
       <c r="J238" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="K238" s="8">
+      <c r="K238" s="12">
         <v>93716.03</v>
       </c>
     </row>
@@ -8389,7 +8425,7 @@
       <c r="H244" s="0" t="s">
         <v>298</v>
       </c>
-      <c r="I244" s="8">
+      <c r="I244" s="12">
         <v>93716.03</v>
       </c>
     </row>

--- a/CsvToXlsx/bin/Debug/combined.xlsx
+++ b/CsvToXlsx/bin/Debug/combined.xlsx
@@ -990,7 +990,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="164" applyNumberFormat="1" fontId="0" applyFont="1" xfId="0" applyProtection="1"/>
@@ -1005,6 +1005,7 @@
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="4" applyNumberFormat="1" fontId="0" applyFont="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" borderId="2" applyBorder="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="1" applyNumberFormat="1" fontId="0" applyFont="1" xfId="0" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1023,9 +1024,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="100" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="2">
       <c r="A2" s="0" t="s">
@@ -1321,8 +1319,8 @@
       <c r="G18" s="12">
         <v>2.9</v>
       </c>
-      <c r="H18" s="12">
-        <v>812</v>
+      <c r="H18" s="14">
+        <v>0</v>
       </c>
       <c r="I18" s="0" t="s">
         <v>0</v>

--- a/CsvToXlsx/bin/Debug/combined.xlsx
+++ b/CsvToXlsx/bin/Debug/combined.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="509">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="508">
   <si>
     <t/>
   </si>
@@ -643,9 +643,6 @@
   </si>
   <si>
     <t xml:space="preserve">1523843.26 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">59.72 </t>
   </si>
   <si>
     <t>BEARINGS &amp; BRAKE PARTS CITY cc</t>
@@ -1636,12 +1633,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="4" applyNumberFormat="1" fontId="0" applyFont="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="4" applyNumberFormat="1" fontId="1" applyFont="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="164" applyNumberFormat="1" fontId="0" applyFont="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" xfId="0" applyProtection="1"/>
@@ -4012,8 +4010,8 @@
       <c r="F106" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="G106" s="1" t="s">
-        <v>210</v>
+      <c r="G106" s="5">
+        <v>59.72</v>
       </c>
     </row>
   </sheetData>
@@ -4058,13 +4056,13 @@
       <c r="D2" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>211</v>
+      <c r="E2" s="6" t="s">
+        <v>210</v>
       </c>
       <c r="F2" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="7">
         <v>41300.0055555556</v>
       </c>
     </row>
@@ -4081,74 +4079,74 @@
       <c r="D4" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>212</v>
+      <c r="E4" s="8" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="B6" s="9">
+        <v>-237234</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="0" t="s">
         <v>213</v>
       </c>
-      <c r="B6" s="8">
-        <v>-237234</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" s="0" t="s">
+      <c r="E6" s="7">
+        <v>41297.0048611111</v>
+      </c>
+      <c r="F6" s="0" t="s">
         <v>214</v>
       </c>
-      <c r="E6" s="6">
-        <v>41297.0048611111</v>
-      </c>
-      <c r="F6" s="0" t="s">
+      <c r="G6" s="7">
+        <v>41304.00625</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="G6" s="6">
-        <v>41304.00625</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="9" t="s">
+      <c r="B8" s="0" t="s">
         <v>216</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="C8" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="0" t="s">
         <v>217</v>
       </c>
-      <c r="C8" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="D8" s="0" t="s">
+      <c r="E8" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="F8" s="0" t="s">
         <v>219</v>
       </c>
-      <c r="F8" s="0" t="s">
+      <c r="G8" s="12">
+        <v>1</v>
+      </c>
+      <c r="H8" s="0" t="s">
         <v>220</v>
       </c>
-      <c r="G8" s="11">
-        <v>1</v>
-      </c>
-      <c r="H8" s="0" t="s">
-        <v>221</v>
-      </c>
-      <c r="I8" s="12">
+      <c r="I8" s="13">
         <v>-3432.3434</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
+        <v>221</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" s="0" t="s">
         <v>222</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>223</v>
       </c>
       <c r="E10" s="0" t="s">
         <v>0</v>
@@ -4156,47 +4154,47 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
+        <v>223</v>
+      </c>
+      <c r="B12" s="14" t="s">
         <v>224</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="C12" s="15" t="s">
         <v>225</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="D12" s="0" t="s">
         <v>226</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="E12" s="0" t="s">
         <v>227</v>
       </c>
-      <c r="E12" s="0" t="s">
+      <c r="F12" s="0" t="s">
         <v>228</v>
       </c>
-      <c r="F12" s="0" t="s">
+      <c r="G12" s="0" t="s">
         <v>229</v>
       </c>
-      <c r="G12" s="0" t="s">
+      <c r="H12" s="0" t="s">
         <v>230</v>
       </c>
-      <c r="H12" s="0" t="s">
+      <c r="I12" s="0" t="s">
         <v>231</v>
       </c>
-      <c r="I12" s="0" t="s">
+      <c r="J12" s="0" t="s">
         <v>232</v>
       </c>
-      <c r="J12" s="0" t="s">
+      <c r="K12" s="0" t="s">
         <v>233</v>
       </c>
-      <c r="K12" s="0" t="s">
+    </row>
+    <row r="14">
+      <c r="A14" s="16" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="15" t="s">
+      <c r="B14" s="0" t="s">
         <v>235</v>
       </c>
-      <c r="B14" s="0" t="s">
-        <v>236</v>
-      </c>
-      <c r="C14" s="8">
+      <c r="C14" s="9">
         <v>100</v>
       </c>
       <c r="D14" s="0" t="s">
@@ -4223,12 +4221,12 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
+        <v>236</v>
+      </c>
+      <c r="B15" s="0" t="s">
         <v>237</v>
       </c>
-      <c r="B15" s="0" t="s">
-        <v>238</v>
-      </c>
-      <c r="C15" s="8">
+      <c r="C15" s="9">
         <v>1</v>
       </c>
       <c r="D15" s="0" t="s">
@@ -4255,13 +4253,13 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="B16" s="0" t="s">
         <v>239</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="C16" s="0" t="s">
         <v>240</v>
-      </c>
-      <c r="C16" s="0" t="s">
-        <v>241</v>
       </c>
       <c r="D16" s="0" t="s">
         <v>0</v>
@@ -4286,13 +4284,13 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="16" t="s">
+      <c r="A17" s="17" t="s">
+        <v>241</v>
+      </c>
+      <c r="B17" s="0" t="s">
         <v>242</v>
       </c>
-      <c r="B17" s="0" t="s">
-        <v>243</v>
-      </c>
-      <c r="C17" s="8">
+      <c r="C17" s="9">
         <v>150</v>
       </c>
       <c r="D17" s="0" t="s">
@@ -4319,12 +4317,12 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="B18" s="0" t="s">
         <v>244</v>
       </c>
-      <c r="B18" s="0" t="s">
-        <v>245</v>
-      </c>
-      <c r="C18" s="8">
+      <c r="C18" s="9">
         <v>280</v>
       </c>
       <c r="D18" s="0" t="s">
@@ -4339,7 +4337,7 @@
       <c r="G18" s="4">
         <v>2.9</v>
       </c>
-      <c r="H18" s="17">
+      <c r="H18" s="18">
         <v>0</v>
       </c>
       <c r="I18" s="0" t="s">
@@ -4351,12 +4349,12 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>240</v>
-      </c>
-      <c r="C19" s="8">
+        <v>239</v>
+      </c>
+      <c r="C19" s="9">
         <v>140</v>
       </c>
       <c r="D19" s="0" t="s">
@@ -4383,12 +4381,12 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
+        <v>246</v>
+      </c>
+      <c r="B20" s="0" t="s">
         <v>247</v>
       </c>
-      <c r="B20" s="0" t="s">
-        <v>248</v>
-      </c>
-      <c r="C20" s="8">
+      <c r="C20" s="9">
         <v>10</v>
       </c>
       <c r="D20" s="0" t="s">
@@ -4415,12 +4413,12 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="B21" s="0" t="s">
         <v>249</v>
       </c>
-      <c r="B21" s="0" t="s">
-        <v>250</v>
-      </c>
-      <c r="C21" s="8">
+      <c r="C21" s="9">
         <v>50</v>
       </c>
       <c r="D21" s="0" t="s">
@@ -4447,12 +4445,12 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="B22" s="0" t="s">
         <v>251</v>
       </c>
-      <c r="B22" s="0" t="s">
-        <v>252</v>
-      </c>
-      <c r="C22" s="8">
+      <c r="C22" s="9">
         <v>40</v>
       </c>
       <c r="D22" s="0" t="s">
@@ -4479,12 +4477,12 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>252</v>
-      </c>
-      <c r="C23" s="8">
+        <v>251</v>
+      </c>
+      <c r="C23" s="9">
         <v>20</v>
       </c>
       <c r="D23" s="0" t="s">
@@ -4511,12 +4509,12 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>248</v>
-      </c>
-      <c r="C24" s="8">
+        <v>247</v>
+      </c>
+      <c r="C24" s="9">
         <v>20</v>
       </c>
       <c r="D24" s="0" t="s">
@@ -4543,12 +4541,12 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
+        <v>254</v>
+      </c>
+      <c r="B25" s="0" t="s">
         <v>255</v>
       </c>
-      <c r="B25" s="0" t="s">
-        <v>256</v>
-      </c>
-      <c r="C25" s="8">
+      <c r="C25" s="9">
         <v>40</v>
       </c>
       <c r="D25" s="0" t="s">
@@ -4575,12 +4573,12 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
+        <v>256</v>
+      </c>
+      <c r="B26" s="0" t="s">
         <v>257</v>
       </c>
-      <c r="B26" s="0" t="s">
-        <v>258</v>
-      </c>
-      <c r="C26" s="8">
+      <c r="C26" s="9">
         <v>40</v>
       </c>
       <c r="D26" s="0" t="s">
@@ -4607,12 +4605,12 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>258</v>
-      </c>
-      <c r="C27" s="8">
+        <v>257</v>
+      </c>
+      <c r="C27" s="9">
         <v>20</v>
       </c>
       <c r="D27" s="0" t="s">
@@ -4639,12 +4637,12 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>256</v>
-      </c>
-      <c r="C28" s="8">
+        <v>255</v>
+      </c>
+      <c r="C28" s="9">
         <v>50</v>
       </c>
       <c r="D28" s="0" t="s">
@@ -4671,12 +4669,12 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>256</v>
-      </c>
-      <c r="C29" s="8">
+        <v>255</v>
+      </c>
+      <c r="C29" s="9">
         <v>42</v>
       </c>
       <c r="D29" s="0" t="s">
@@ -4703,12 +4701,12 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>258</v>
-      </c>
-      <c r="C30" s="8">
+        <v>257</v>
+      </c>
+      <c r="C30" s="9">
         <v>10</v>
       </c>
       <c r="D30" s="0" t="s">
@@ -4735,12 +4733,12 @@
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>258</v>
-      </c>
-      <c r="C31" s="8">
+        <v>257</v>
+      </c>
+      <c r="C31" s="9">
         <v>10</v>
       </c>
       <c r="D31" s="0" t="s">
@@ -4767,12 +4765,12 @@
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>256</v>
-      </c>
-      <c r="C32" s="8">
+        <v>255</v>
+      </c>
+      <c r="C32" s="9">
         <v>15</v>
       </c>
       <c r="D32" s="0" t="s">
@@ -4799,12 +4797,12 @@
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>256</v>
-      </c>
-      <c r="C33" s="8">
+        <v>255</v>
+      </c>
+      <c r="C33" s="9">
         <v>10</v>
       </c>
       <c r="D33" s="0" t="s">
@@ -4831,12 +4829,12 @@
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>258</v>
-      </c>
-      <c r="C34" s="8">
+        <v>257</v>
+      </c>
+      <c r="C34" s="9">
         <v>4</v>
       </c>
       <c r="D34" s="0" t="s">
@@ -4863,12 +4861,12 @@
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>256</v>
-      </c>
-      <c r="C35" s="8">
+        <v>255</v>
+      </c>
+      <c r="C35" s="9">
         <v>4</v>
       </c>
       <c r="D35" s="0" t="s">
@@ -4895,12 +4893,12 @@
     </row>
     <row r="36">
       <c r="A36" s="0" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>256</v>
-      </c>
-      <c r="C36" s="8">
+        <v>255</v>
+      </c>
+      <c r="C36" s="9">
         <v>4</v>
       </c>
       <c r="D36" s="0" t="s">
@@ -4927,12 +4925,12 @@
     </row>
     <row r="37">
       <c r="A37" s="0" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>256</v>
-      </c>
-      <c r="C37" s="8">
+        <v>255</v>
+      </c>
+      <c r="C37" s="9">
         <v>2</v>
       </c>
       <c r="D37" s="0" t="s">
@@ -4959,12 +4957,12 @@
     </row>
     <row r="38">
       <c r="A38" s="0" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>256</v>
-      </c>
-      <c r="C38" s="8">
+        <v>255</v>
+      </c>
+      <c r="C38" s="9">
         <v>10</v>
       </c>
       <c r="D38" s="0" t="s">
@@ -4991,12 +4989,12 @@
     </row>
     <row r="39">
       <c r="A39" s="0" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>256</v>
-      </c>
-      <c r="C39" s="8">
+        <v>255</v>
+      </c>
+      <c r="C39" s="9">
         <v>10</v>
       </c>
       <c r="D39" s="0" t="s">
@@ -5023,12 +5021,12 @@
     </row>
     <row r="40">
       <c r="A40" s="0" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>256</v>
-      </c>
-      <c r="C40" s="8">
+        <v>255</v>
+      </c>
+      <c r="C40" s="9">
         <v>10</v>
       </c>
       <c r="D40" s="0" t="s">
@@ -5055,12 +5053,12 @@
     </row>
     <row r="41">
       <c r="A41" s="0" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>256</v>
-      </c>
-      <c r="C41" s="8">
+        <v>255</v>
+      </c>
+      <c r="C41" s="9">
         <v>4</v>
       </c>
       <c r="D41" s="0" t="s">
@@ -5087,12 +5085,12 @@
     </row>
     <row r="42">
       <c r="A42" s="0" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>256</v>
-      </c>
-      <c r="C42" s="8">
+        <v>255</v>
+      </c>
+      <c r="C42" s="9">
         <v>2</v>
       </c>
       <c r="D42" s="0" t="s">
@@ -5119,12 +5117,12 @@
     </row>
     <row r="43">
       <c r="A43" s="0" t="s">
+        <v>274</v>
+      </c>
+      <c r="B43" s="0" t="s">
         <v>275</v>
       </c>
-      <c r="B43" s="0" t="s">
-        <v>276</v>
-      </c>
-      <c r="C43" s="8">
+      <c r="C43" s="9">
         <v>150</v>
       </c>
       <c r="D43" s="0" t="s">
@@ -5151,12 +5149,12 @@
     </row>
     <row r="44">
       <c r="A44" s="0" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>276</v>
-      </c>
-      <c r="C44" s="8">
+        <v>275</v>
+      </c>
+      <c r="C44" s="9">
         <v>200</v>
       </c>
       <c r="D44" s="0" t="s">
@@ -5183,12 +5181,12 @@
     </row>
     <row r="45">
       <c r="A45" s="0" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>276</v>
-      </c>
-      <c r="C45" s="8">
+        <v>275</v>
+      </c>
+      <c r="C45" s="9">
         <v>120</v>
       </c>
       <c r="D45" s="0" t="s">
@@ -5215,12 +5213,12 @@
     </row>
     <row r="46">
       <c r="A46" s="0" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>276</v>
-      </c>
-      <c r="C46" s="8">
+        <v>275</v>
+      </c>
+      <c r="C46" s="9">
         <v>120</v>
       </c>
       <c r="D46" s="0" t="s">
@@ -5247,12 +5245,12 @@
     </row>
     <row r="47">
       <c r="A47" s="0" t="s">
+        <v>279</v>
+      </c>
+      <c r="B47" s="0" t="s">
         <v>280</v>
       </c>
-      <c r="B47" s="0" t="s">
-        <v>281</v>
-      </c>
-      <c r="C47" s="8">
+      <c r="C47" s="9">
         <v>60</v>
       </c>
       <c r="D47" s="0" t="s">
@@ -5279,12 +5277,12 @@
     </row>
     <row r="48">
       <c r="A48" s="0" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>281</v>
-      </c>
-      <c r="C48" s="8">
+        <v>280</v>
+      </c>
+      <c r="C48" s="9">
         <v>80</v>
       </c>
       <c r="D48" s="0" t="s">
@@ -5311,12 +5309,12 @@
     </row>
     <row r="49">
       <c r="A49" s="0" t="s">
+        <v>282</v>
+      </c>
+      <c r="B49" s="0" t="s">
         <v>283</v>
       </c>
-      <c r="B49" s="0" t="s">
-        <v>284</v>
-      </c>
-      <c r="C49" s="8">
+      <c r="C49" s="9">
         <v>20</v>
       </c>
       <c r="D49" s="0" t="s">
@@ -5343,12 +5341,12 @@
     </row>
     <row r="50">
       <c r="A50" s="0" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>276</v>
-      </c>
-      <c r="C50" s="8">
+        <v>275</v>
+      </c>
+      <c r="C50" s="9">
         <v>112</v>
       </c>
       <c r="D50" s="0" t="s">
@@ -5375,12 +5373,12 @@
     </row>
     <row r="51">
       <c r="A51" s="0" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>276</v>
-      </c>
-      <c r="C51" s="8">
+        <v>275</v>
+      </c>
+      <c r="C51" s="9">
         <v>54</v>
       </c>
       <c r="D51" s="0" t="s">
@@ -5407,12 +5405,12 @@
     </row>
     <row r="52">
       <c r="A52" s="0" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>281</v>
-      </c>
-      <c r="C52" s="8">
+        <v>280</v>
+      </c>
+      <c r="C52" s="9">
         <v>108</v>
       </c>
       <c r="D52" s="0" t="s">
@@ -5439,12 +5437,12 @@
     </row>
     <row r="53">
       <c r="A53" s="0" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>281</v>
-      </c>
-      <c r="C53" s="8">
+        <v>280</v>
+      </c>
+      <c r="C53" s="9">
         <v>96</v>
       </c>
       <c r="D53" s="0" t="s">
@@ -5471,12 +5469,12 @@
     </row>
     <row r="54">
       <c r="A54" s="0" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>276</v>
-      </c>
-      <c r="C54" s="8">
+        <v>275</v>
+      </c>
+      <c r="C54" s="9">
         <v>30</v>
       </c>
       <c r="D54" s="0" t="s">
@@ -5503,12 +5501,12 @@
     </row>
     <row r="55">
       <c r="A55" s="0" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>281</v>
-      </c>
-      <c r="C55" s="8">
+        <v>280</v>
+      </c>
+      <c r="C55" s="9">
         <v>60</v>
       </c>
       <c r="D55" s="0" t="s">
@@ -5535,12 +5533,12 @@
     </row>
     <row r="56">
       <c r="A56" s="0" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>281</v>
-      </c>
-      <c r="C56" s="8">
+        <v>280</v>
+      </c>
+      <c r="C56" s="9">
         <v>48</v>
       </c>
       <c r="D56" s="0" t="s">
@@ -5567,12 +5565,12 @@
     </row>
     <row r="57">
       <c r="A57" s="0" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>281</v>
-      </c>
-      <c r="C57" s="8">
+        <v>280</v>
+      </c>
+      <c r="C57" s="9">
         <v>22</v>
       </c>
       <c r="D57" s="0" t="s">
@@ -5599,12 +5597,12 @@
     </row>
     <row r="58">
       <c r="A58" s="0" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>284</v>
-      </c>
-      <c r="C58" s="8">
+        <v>283</v>
+      </c>
+      <c r="C58" s="9">
         <v>28</v>
       </c>
       <c r="D58" s="0" t="s">
@@ -5631,12 +5629,12 @@
     </row>
     <row r="59">
       <c r="A59" s="0" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>284</v>
-      </c>
-      <c r="C59" s="8">
+        <v>283</v>
+      </c>
+      <c r="C59" s="9">
         <v>5</v>
       </c>
       <c r="D59" s="0" t="s">
@@ -5663,12 +5661,12 @@
     </row>
     <row r="60">
       <c r="A60" s="0" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>281</v>
-      </c>
-      <c r="C60" s="8">
+        <v>280</v>
+      </c>
+      <c r="C60" s="9">
         <v>16</v>
       </c>
       <c r="D60" s="0" t="s">
@@ -5695,12 +5693,12 @@
     </row>
     <row r="61">
       <c r="A61" s="0" t="s">
+        <v>295</v>
+      </c>
+      <c r="B61" s="0" t="s">
         <v>296</v>
       </c>
-      <c r="B61" s="0" t="s">
-        <v>297</v>
-      </c>
-      <c r="C61" s="8">
+      <c r="C61" s="9">
         <v>24</v>
       </c>
       <c r="D61" s="0" t="s">
@@ -5727,12 +5725,12 @@
     </row>
     <row r="62">
       <c r="A62" s="0" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>297</v>
-      </c>
-      <c r="C62" s="8">
+        <v>296</v>
+      </c>
+      <c r="C62" s="9">
         <v>20</v>
       </c>
       <c r="D62" s="0" t="s">
@@ -5759,12 +5757,12 @@
     </row>
     <row r="63">
       <c r="A63" s="0" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>297</v>
-      </c>
-      <c r="C63" s="8">
+        <v>296</v>
+      </c>
+      <c r="C63" s="9">
         <v>24</v>
       </c>
       <c r="D63" s="0" t="s">
@@ -5791,12 +5789,12 @@
     </row>
     <row r="64">
       <c r="A64" s="0" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>240</v>
-      </c>
-      <c r="C64" s="8">
+        <v>239</v>
+      </c>
+      <c r="C64" s="9">
         <v>36</v>
       </c>
       <c r="D64" s="0" t="s">
@@ -5823,12 +5821,12 @@
     </row>
     <row r="65">
       <c r="A65" s="0" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>297</v>
-      </c>
-      <c r="C65" s="8">
+        <v>296</v>
+      </c>
+      <c r="C65" s="9">
         <v>20</v>
       </c>
       <c r="D65" s="0" t="s">
@@ -5855,12 +5853,12 @@
     </row>
     <row r="66">
       <c r="A66" s="0" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>297</v>
-      </c>
-      <c r="C66" s="8">
+        <v>296</v>
+      </c>
+      <c r="C66" s="9">
         <v>20</v>
       </c>
       <c r="D66" s="0" t="s">
@@ -5887,12 +5885,12 @@
     </row>
     <row r="67">
       <c r="A67" s="0" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>240</v>
-      </c>
-      <c r="C67" s="8">
+        <v>239</v>
+      </c>
+      <c r="C67" s="9">
         <v>140</v>
       </c>
       <c r="D67" s="0" t="s">
@@ -5919,12 +5917,12 @@
     </row>
     <row r="68">
       <c r="A68" s="0" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>250</v>
-      </c>
-      <c r="C68" s="8">
+        <v>249</v>
+      </c>
+      <c r="C68" s="9">
         <v>1080</v>
       </c>
       <c r="D68" s="0" t="s">
@@ -5951,12 +5949,12 @@
     </row>
     <row r="69">
       <c r="A69" s="0" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>250</v>
-      </c>
-      <c r="C69" s="8">
+        <v>249</v>
+      </c>
+      <c r="C69" s="9">
         <v>240</v>
       </c>
       <c r="D69" s="0" t="s">
@@ -5983,12 +5981,12 @@
     </row>
     <row r="70">
       <c r="A70" s="0" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>250</v>
-      </c>
-      <c r="C70" s="8">
+        <v>249</v>
+      </c>
+      <c r="C70" s="9">
         <v>120</v>
       </c>
       <c r="D70" s="0" t="s">
@@ -6015,12 +6013,12 @@
     </row>
     <row r="71">
       <c r="A71" s="0" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>250</v>
-      </c>
-      <c r="C71" s="8">
+        <v>249</v>
+      </c>
+      <c r="C71" s="9">
         <v>90</v>
       </c>
       <c r="D71" s="0" t="s">
@@ -6047,12 +6045,12 @@
     </row>
     <row r="72">
       <c r="A72" s="0" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>250</v>
-      </c>
-      <c r="C72" s="8">
+        <v>249</v>
+      </c>
+      <c r="C72" s="9">
         <v>60</v>
       </c>
       <c r="D72" s="0" t="s">
@@ -6079,12 +6077,12 @@
     </row>
     <row r="73">
       <c r="A73" s="0" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>252</v>
-      </c>
-      <c r="C73" s="8">
+        <v>251</v>
+      </c>
+      <c r="C73" s="9">
         <v>20</v>
       </c>
       <c r="D73" s="0" t="s">
@@ -6111,12 +6109,12 @@
     </row>
     <row r="74">
       <c r="A74" s="0" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>250</v>
-      </c>
-      <c r="C74" s="8">
+        <v>249</v>
+      </c>
+      <c r="C74" s="9">
         <v>30</v>
       </c>
       <c r="D74" s="0" t="s">
@@ -6143,12 +6141,12 @@
     </row>
     <row r="75">
       <c r="A75" s="0" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>252</v>
-      </c>
-      <c r="C75" s="8">
+        <v>251</v>
+      </c>
+      <c r="C75" s="9">
         <v>2</v>
       </c>
       <c r="D75" s="0" t="s">
@@ -6175,12 +6173,12 @@
     </row>
     <row r="76">
       <c r="A76" s="0" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>250</v>
-      </c>
-      <c r="C76" s="8">
+        <v>249</v>
+      </c>
+      <c r="C76" s="9">
         <v>1080</v>
       </c>
       <c r="D76" s="0" t="s">
@@ -6207,12 +6205,12 @@
     </row>
     <row r="77">
       <c r="A77" s="0" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>250</v>
-      </c>
-      <c r="C77" s="8">
+        <v>249</v>
+      </c>
+      <c r="C77" s="9">
         <v>960</v>
       </c>
       <c r="D77" s="0" t="s">
@@ -6239,12 +6237,12 @@
     </row>
     <row r="78">
       <c r="A78" s="0" t="s">
+        <v>313</v>
+      </c>
+      <c r="B78" s="0" t="s">
         <v>314</v>
       </c>
-      <c r="B78" s="0" t="s">
-        <v>315</v>
-      </c>
-      <c r="C78" s="8">
+      <c r="C78" s="9">
         <v>1050</v>
       </c>
       <c r="D78" s="0" t="s">
@@ -6271,12 +6269,12 @@
     </row>
     <row r="79">
       <c r="A79" s="0" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>252</v>
-      </c>
-      <c r="C79" s="8">
+        <v>251</v>
+      </c>
+      <c r="C79" s="9">
         <v>10</v>
       </c>
       <c r="D79" s="0" t="s">
@@ -6303,12 +6301,12 @@
     </row>
     <row r="80">
       <c r="A80" s="0" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>252</v>
-      </c>
-      <c r="C80" s="8">
+        <v>251</v>
+      </c>
+      <c r="C80" s="9">
         <v>20</v>
       </c>
       <c r="D80" s="0" t="s">
@@ -6335,12 +6333,12 @@
     </row>
     <row r="81">
       <c r="A81" s="0" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>252</v>
-      </c>
-      <c r="C81" s="8">
+        <v>251</v>
+      </c>
+      <c r="C81" s="9">
         <v>4</v>
       </c>
       <c r="D81" s="0" t="s">
@@ -6367,12 +6365,12 @@
     </row>
     <row r="82">
       <c r="A82" s="0" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>252</v>
-      </c>
-      <c r="C82" s="8">
+        <v>251</v>
+      </c>
+      <c r="C82" s="9">
         <v>4</v>
       </c>
       <c r="D82" s="0" t="s">
@@ -6399,12 +6397,12 @@
     </row>
     <row r="83">
       <c r="A83" s="0" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>252</v>
-      </c>
-      <c r="C83" s="8">
+        <v>251</v>
+      </c>
+      <c r="C83" s="9">
         <v>5</v>
       </c>
       <c r="D83" s="0" t="s">
@@ -6431,12 +6429,12 @@
     </row>
     <row r="84">
       <c r="A84" s="0" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>252</v>
-      </c>
-      <c r="C84" s="8">
+        <v>251</v>
+      </c>
+      <c r="C84" s="9">
         <v>4</v>
       </c>
       <c r="D84" s="0" t="s">
@@ -6463,12 +6461,12 @@
     </row>
     <row r="85">
       <c r="A85" s="0" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>250</v>
-      </c>
-      <c r="C85" s="8">
+        <v>249</v>
+      </c>
+      <c r="C85" s="9">
         <v>140</v>
       </c>
       <c r="D85" s="0" t="s">
@@ -6495,12 +6493,12 @@
     </row>
     <row r="86">
       <c r="A86" s="0" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>250</v>
-      </c>
-      <c r="C86" s="8">
+        <v>249</v>
+      </c>
+      <c r="C86" s="9">
         <v>480</v>
       </c>
       <c r="D86" s="0" t="s">
@@ -6527,12 +6525,12 @@
     </row>
     <row r="87">
       <c r="A87" s="0" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>250</v>
-      </c>
-      <c r="C87" s="8">
+        <v>249</v>
+      </c>
+      <c r="C87" s="9">
         <v>210</v>
       </c>
       <c r="D87" s="0" t="s">
@@ -6559,12 +6557,12 @@
     </row>
     <row r="88">
       <c r="A88" s="0" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>250</v>
-      </c>
-      <c r="C88" s="8">
+        <v>249</v>
+      </c>
+      <c r="C88" s="9">
         <v>180</v>
       </c>
       <c r="D88" s="0" t="s">
@@ -6591,12 +6589,12 @@
     </row>
     <row r="89">
       <c r="A89" s="0" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>250</v>
-      </c>
-      <c r="C89" s="8">
+        <v>249</v>
+      </c>
+      <c r="C89" s="9">
         <v>240</v>
       </c>
       <c r="D89" s="0" t="s">
@@ -6623,12 +6621,12 @@
     </row>
     <row r="90">
       <c r="A90" s="0" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>250</v>
-      </c>
-      <c r="C90" s="8">
+        <v>249</v>
+      </c>
+      <c r="C90" s="9">
         <v>74</v>
       </c>
       <c r="D90" s="0" t="s">
@@ -6655,12 +6653,12 @@
     </row>
     <row r="91">
       <c r="A91" s="0" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>250</v>
-      </c>
-      <c r="C91" s="8">
+        <v>249</v>
+      </c>
+      <c r="C91" s="9">
         <v>74</v>
       </c>
       <c r="D91" s="0" t="s">
@@ -6687,12 +6685,12 @@
     </row>
     <row r="92">
       <c r="A92" s="0" t="s">
+        <v>328</v>
+      </c>
+      <c r="B92" s="0" t="s">
         <v>329</v>
       </c>
-      <c r="B92" s="0" t="s">
-        <v>330</v>
-      </c>
-      <c r="C92" s="8">
+      <c r="C92" s="9">
         <v>10</v>
       </c>
       <c r="D92" s="0" t="s">
@@ -6719,12 +6717,12 @@
     </row>
     <row r="93">
       <c r="A93" s="0" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>252</v>
-      </c>
-      <c r="C93" s="8">
+        <v>251</v>
+      </c>
+      <c r="C93" s="9">
         <v>20</v>
       </c>
       <c r="D93" s="0" t="s">
@@ -6751,12 +6749,12 @@
     </row>
     <row r="94">
       <c r="A94" s="0" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>240</v>
-      </c>
-      <c r="C94" s="8">
+        <v>239</v>
+      </c>
+      <c r="C94" s="9">
         <v>270</v>
       </c>
       <c r="D94" s="0" t="s">
@@ -6783,12 +6781,12 @@
     </row>
     <row r="95">
       <c r="A95" s="0" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>250</v>
-      </c>
-      <c r="C95" s="8">
+        <v>249</v>
+      </c>
+      <c r="C95" s="9">
         <v>500</v>
       </c>
       <c r="D95" s="0" t="s">
@@ -6815,12 +6813,12 @@
     </row>
     <row r="96">
       <c r="A96" s="0" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>250</v>
-      </c>
-      <c r="C96" s="8">
+        <v>249</v>
+      </c>
+      <c r="C96" s="9">
         <v>500</v>
       </c>
       <c r="D96" s="0" t="s">
@@ -6847,12 +6845,12 @@
     </row>
     <row r="97">
       <c r="A97" s="0" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>250</v>
-      </c>
-      <c r="C97" s="8">
+        <v>249</v>
+      </c>
+      <c r="C97" s="9">
         <v>200</v>
       </c>
       <c r="D97" s="0" t="s">
@@ -6879,12 +6877,12 @@
     </row>
     <row r="98">
       <c r="A98" s="0" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>250</v>
-      </c>
-      <c r="C98" s="8">
+        <v>249</v>
+      </c>
+      <c r="C98" s="9">
         <v>150</v>
       </c>
       <c r="D98" s="0" t="s">
@@ -6911,12 +6909,12 @@
     </row>
     <row r="99">
       <c r="A99" s="0" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>315</v>
-      </c>
-      <c r="C99" s="8">
+        <v>314</v>
+      </c>
+      <c r="C99" s="9">
         <v>30</v>
       </c>
       <c r="D99" s="0" t="s">
@@ -6943,12 +6941,12 @@
     </row>
     <row r="100">
       <c r="A100" s="0" t="s">
+        <v>337</v>
+      </c>
+      <c r="B100" s="0" t="s">
         <v>338</v>
       </c>
-      <c r="B100" s="0" t="s">
-        <v>339</v>
-      </c>
-      <c r="C100" s="8">
+      <c r="C100" s="9">
         <v>500</v>
       </c>
       <c r="D100" s="0" t="s">
@@ -6975,12 +6973,12 @@
     </row>
     <row r="101">
       <c r="A101" s="0" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>238</v>
-      </c>
-      <c r="C101" s="8">
+        <v>237</v>
+      </c>
+      <c r="C101" s="9">
         <v>3</v>
       </c>
       <c r="D101" s="0" t="s">
@@ -7007,12 +7005,12 @@
     </row>
     <row r="102">
       <c r="A102" s="0" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>238</v>
-      </c>
-      <c r="C102" s="8">
+        <v>237</v>
+      </c>
+      <c r="C102" s="9">
         <v>10</v>
       </c>
       <c r="D102" s="0" t="s">
@@ -7039,12 +7037,12 @@
     </row>
     <row r="103">
       <c r="A103" s="0" t="s">
+        <v>341</v>
+      </c>
+      <c r="B103" s="0" t="s">
         <v>342</v>
       </c>
-      <c r="B103" s="0" t="s">
-        <v>343</v>
-      </c>
-      <c r="C103" s="8">
+      <c r="C103" s="9">
         <v>100</v>
       </c>
       <c r="D103" s="0" t="s">
@@ -7071,12 +7069,12 @@
     </row>
     <row r="104">
       <c r="A104" s="0" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>284</v>
-      </c>
-      <c r="C104" s="8">
+        <v>283</v>
+      </c>
+      <c r="C104" s="9">
         <v>15</v>
       </c>
       <c r="D104" s="0" t="s">
@@ -7103,12 +7101,12 @@
     </row>
     <row r="105">
       <c r="A105" s="0" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>284</v>
-      </c>
-      <c r="C105" s="8">
+        <v>283</v>
+      </c>
+      <c r="C105" s="9">
         <v>10</v>
       </c>
       <c r="D105" s="0" t="s">
@@ -7135,12 +7133,12 @@
     </row>
     <row r="106">
       <c r="A106" s="0" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>284</v>
-      </c>
-      <c r="C106" s="8">
+        <v>283</v>
+      </c>
+      <c r="C106" s="9">
         <v>6</v>
       </c>
       <c r="D106" s="0" t="s">
@@ -7167,12 +7165,12 @@
     </row>
     <row r="107">
       <c r="A107" s="0" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>240</v>
-      </c>
-      <c r="C107" s="8">
+        <v>239</v>
+      </c>
+      <c r="C107" s="9">
         <v>150</v>
       </c>
       <c r="D107" s="0" t="s">
@@ -7199,12 +7197,12 @@
     </row>
     <row r="108">
       <c r="A108" s="0" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>284</v>
-      </c>
-      <c r="C108" s="8">
+        <v>283</v>
+      </c>
+      <c r="C108" s="9">
         <v>20</v>
       </c>
       <c r="D108" s="0" t="s">
@@ -7231,12 +7229,12 @@
     </row>
     <row r="109">
       <c r="A109" s="0" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>284</v>
-      </c>
-      <c r="C109" s="8">
+        <v>283</v>
+      </c>
+      <c r="C109" s="9">
         <v>20</v>
       </c>
       <c r="D109" s="0" t="s">
@@ -7263,12 +7261,12 @@
     </row>
     <row r="110">
       <c r="A110" s="0" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>284</v>
-      </c>
-      <c r="C110" s="8">
+        <v>283</v>
+      </c>
+      <c r="C110" s="9">
         <v>8</v>
       </c>
       <c r="D110" s="0" t="s">
@@ -7295,12 +7293,12 @@
     </row>
     <row r="111">
       <c r="A111" s="0" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>343</v>
-      </c>
-      <c r="C111" s="8">
+        <v>342</v>
+      </c>
+      <c r="C111" s="9">
         <v>10</v>
       </c>
       <c r="D111" s="0" t="s">
@@ -7327,12 +7325,12 @@
     </row>
     <row r="112">
       <c r="A112" s="0" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>240</v>
-      </c>
-      <c r="C112" s="8">
+        <v>239</v>
+      </c>
+      <c r="C112" s="9">
         <v>140</v>
       </c>
       <c r="D112" s="0" t="s">
@@ -7359,12 +7357,12 @@
     </row>
     <row r="113">
       <c r="A113" s="0" t="s">
+        <v>352</v>
+      </c>
+      <c r="B113" s="0" t="s">
         <v>353</v>
       </c>
-      <c r="B113" s="0" t="s">
-        <v>354</v>
-      </c>
-      <c r="C113" s="8">
+      <c r="C113" s="9">
         <v>60</v>
       </c>
       <c r="D113" s="0" t="s">
@@ -7391,12 +7389,12 @@
     </row>
     <row r="114">
       <c r="A114" s="0" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>354</v>
-      </c>
-      <c r="C114" s="8">
+        <v>353</v>
+      </c>
+      <c r="C114" s="9">
         <v>30</v>
       </c>
       <c r="D114" s="0" t="s">
@@ -7423,12 +7421,12 @@
     </row>
     <row r="115">
       <c r="A115" s="0" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>354</v>
-      </c>
-      <c r="C115" s="8">
+        <v>353</v>
+      </c>
+      <c r="C115" s="9">
         <v>40</v>
       </c>
       <c r="D115" s="0" t="s">
@@ -7455,12 +7453,12 @@
     </row>
     <row r="116">
       <c r="A116" s="0" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>354</v>
-      </c>
-      <c r="C116" s="8">
+        <v>353</v>
+      </c>
+      <c r="C116" s="9">
         <v>100</v>
       </c>
       <c r="D116" s="0" t="s">
@@ -7487,12 +7485,12 @@
     </row>
     <row r="117">
       <c r="A117" s="0" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>354</v>
-      </c>
-      <c r="C117" s="8">
+        <v>353</v>
+      </c>
+      <c r="C117" s="9">
         <v>80</v>
       </c>
       <c r="D117" s="0" t="s">
@@ -7519,12 +7517,12 @@
     </row>
     <row r="118">
       <c r="A118" s="0" t="s">
+        <v>358</v>
+      </c>
+      <c r="B118" s="0" t="s">
         <v>359</v>
       </c>
-      <c r="B118" s="0" t="s">
-        <v>360</v>
-      </c>
-      <c r="C118" s="8">
+      <c r="C118" s="9">
         <v>30</v>
       </c>
       <c r="D118" s="0" t="s">
@@ -7551,12 +7549,12 @@
     </row>
     <row r="119">
       <c r="A119" s="0" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>360</v>
-      </c>
-      <c r="C119" s="8">
+        <v>359</v>
+      </c>
+      <c r="C119" s="9">
         <v>40</v>
       </c>
       <c r="D119" s="0" t="s">
@@ -7583,12 +7581,12 @@
     </row>
     <row r="120">
       <c r="A120" s="0" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B120" s="0" t="s">
-        <v>360</v>
-      </c>
-      <c r="C120" s="8">
+        <v>359</v>
+      </c>
+      <c r="C120" s="9">
         <v>50</v>
       </c>
       <c r="D120" s="0" t="s">
@@ -7615,12 +7613,12 @@
     </row>
     <row r="121">
       <c r="A121" s="0" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>360</v>
-      </c>
-      <c r="C121" s="8">
+        <v>359</v>
+      </c>
+      <c r="C121" s="9">
         <v>40</v>
       </c>
       <c r="D121" s="0" t="s">
@@ -7647,12 +7645,12 @@
     </row>
     <row r="122">
       <c r="A122" s="0" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B122" s="0" t="s">
-        <v>297</v>
-      </c>
-      <c r="C122" s="8">
+        <v>296</v>
+      </c>
+      <c r="C122" s="9">
         <v>150</v>
       </c>
       <c r="D122" s="0" t="s">
@@ -7679,12 +7677,12 @@
     </row>
     <row r="123">
       <c r="A123" s="0" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B123" s="0" t="s">
-        <v>343</v>
-      </c>
-      <c r="C123" s="8">
+        <v>342</v>
+      </c>
+      <c r="C123" s="9">
         <v>4</v>
       </c>
       <c r="D123" s="0" t="s">
@@ -7711,12 +7709,12 @@
     </row>
     <row r="124">
       <c r="A124" s="0" t="s">
+        <v>365</v>
+      </c>
+      <c r="B124" s="0" t="s">
         <v>366</v>
       </c>
-      <c r="B124" s="0" t="s">
-        <v>367</v>
-      </c>
-      <c r="C124" s="8">
+      <c r="C124" s="9">
         <v>25</v>
       </c>
       <c r="D124" s="0" t="s">
@@ -7743,12 +7741,12 @@
     </row>
     <row r="125">
       <c r="A125" s="0" t="s">
+        <v>367</v>
+      </c>
+      <c r="B125" s="0" t="s">
         <v>368</v>
       </c>
-      <c r="B125" s="0" t="s">
-        <v>369</v>
-      </c>
-      <c r="C125" s="8">
+      <c r="C125" s="9">
         <v>500</v>
       </c>
       <c r="D125" s="0" t="s">
@@ -7775,12 +7773,12 @@
     </row>
     <row r="126">
       <c r="A126" s="0" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B126" s="0" t="s">
-        <v>250</v>
-      </c>
-      <c r="C126" s="8">
+        <v>249</v>
+      </c>
+      <c r="C126" s="9">
         <v>270</v>
       </c>
       <c r="D126" s="0" t="s">
@@ -7807,12 +7805,12 @@
     </row>
     <row r="127">
       <c r="A127" s="0" t="s">
+        <v>370</v>
+      </c>
+      <c r="B127" s="0" t="s">
         <v>371</v>
       </c>
-      <c r="B127" s="0" t="s">
-        <v>372</v>
-      </c>
-      <c r="C127" s="8">
+      <c r="C127" s="9">
         <v>200</v>
       </c>
       <c r="D127" s="0" t="s">
@@ -7839,12 +7837,12 @@
     </row>
     <row r="128">
       <c r="A128" s="0" t="s">
+        <v>372</v>
+      </c>
+      <c r="B128" s="0" t="s">
         <v>373</v>
       </c>
-      <c r="B128" s="0" t="s">
-        <v>374</v>
-      </c>
-      <c r="C128" s="8">
+      <c r="C128" s="9">
         <v>20</v>
       </c>
       <c r="D128" s="0" t="s">
@@ -7871,12 +7869,12 @@
     </row>
     <row r="129">
       <c r="A129" s="0" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B129" s="0" t="s">
-        <v>374</v>
-      </c>
-      <c r="C129" s="8">
+        <v>373</v>
+      </c>
+      <c r="C129" s="9">
         <v>8</v>
       </c>
       <c r="D129" s="0" t="s">
@@ -7903,12 +7901,12 @@
     </row>
     <row r="130">
       <c r="A130" s="0" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B130" s="0" t="s">
-        <v>374</v>
-      </c>
-      <c r="C130" s="8">
+        <v>373</v>
+      </c>
+      <c r="C130" s="9">
         <v>25</v>
       </c>
       <c r="D130" s="0" t="s">
@@ -7935,12 +7933,12 @@
     </row>
     <row r="131">
       <c r="A131" s="0" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B131" s="0" t="s">
-        <v>374</v>
-      </c>
-      <c r="C131" s="8">
+        <v>373</v>
+      </c>
+      <c r="C131" s="9">
         <v>6</v>
       </c>
       <c r="D131" s="0" t="s">
@@ -7967,12 +7965,12 @@
     </row>
     <row r="132">
       <c r="A132" s="0" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B132" s="0" t="s">
-        <v>374</v>
-      </c>
-      <c r="C132" s="8">
+        <v>373</v>
+      </c>
+      <c r="C132" s="9">
         <v>50</v>
       </c>
       <c r="D132" s="0" t="s">
@@ -7999,12 +7997,12 @@
     </row>
     <row r="133">
       <c r="A133" s="0" t="s">
+        <v>378</v>
+      </c>
+      <c r="B133" s="0" t="s">
         <v>379</v>
       </c>
-      <c r="B133" s="0" t="s">
-        <v>380</v>
-      </c>
-      <c r="C133" s="8">
+      <c r="C133" s="9">
         <v>85</v>
       </c>
       <c r="D133" s="0" t="s">
@@ -8031,12 +8029,12 @@
     </row>
     <row r="134">
       <c r="A134" s="0" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B134" s="0" t="s">
-        <v>380</v>
-      </c>
-      <c r="C134" s="8">
+        <v>379</v>
+      </c>
+      <c r="C134" s="9">
         <v>96</v>
       </c>
       <c r="D134" s="0" t="s">
@@ -8063,12 +8061,12 @@
     </row>
     <row r="135">
       <c r="A135" s="0" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B135" s="0" t="s">
-        <v>380</v>
-      </c>
-      <c r="C135" s="8">
+        <v>379</v>
+      </c>
+      <c r="C135" s="9">
         <v>90</v>
       </c>
       <c r="D135" s="0" t="s">
@@ -8095,12 +8093,12 @@
     </row>
     <row r="136">
       <c r="A136" s="0" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B136" s="0" t="s">
-        <v>380</v>
-      </c>
-      <c r="C136" s="8">
+        <v>379</v>
+      </c>
+      <c r="C136" s="9">
         <v>72</v>
       </c>
       <c r="D136" s="0" t="s">
@@ -8127,12 +8125,12 @@
     </row>
     <row r="137">
       <c r="A137" s="0" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B137" s="0" t="s">
-        <v>380</v>
-      </c>
-      <c r="C137" s="8">
+        <v>379</v>
+      </c>
+      <c r="C137" s="9">
         <v>84</v>
       </c>
       <c r="D137" s="0" t="s">
@@ -8159,12 +8157,12 @@
     </row>
     <row r="138">
       <c r="A138" s="0" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B138" s="0" t="s">
-        <v>380</v>
-      </c>
-      <c r="C138" s="8">
+        <v>379</v>
+      </c>
+      <c r="C138" s="9">
         <v>50</v>
       </c>
       <c r="D138" s="0" t="s">
@@ -8191,12 +8189,12 @@
     </row>
     <row r="139">
       <c r="A139" s="0" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B139" s="0" t="s">
-        <v>380</v>
-      </c>
-      <c r="C139" s="8">
+        <v>379</v>
+      </c>
+      <c r="C139" s="9">
         <v>48</v>
       </c>
       <c r="D139" s="0" t="s">
@@ -8223,12 +8221,12 @@
     </row>
     <row r="140">
       <c r="A140" s="0" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B140" s="0" t="s">
-        <v>380</v>
-      </c>
-      <c r="C140" s="8">
+        <v>379</v>
+      </c>
+      <c r="C140" s="9">
         <v>21</v>
       </c>
       <c r="D140" s="0" t="s">
@@ -8255,12 +8253,12 @@
     </row>
     <row r="141">
       <c r="A141" s="0" t="s">
+        <v>387</v>
+      </c>
+      <c r="B141" s="0" t="s">
         <v>388</v>
       </c>
-      <c r="B141" s="0" t="s">
-        <v>389</v>
-      </c>
-      <c r="C141" s="8">
+      <c r="C141" s="9">
         <v>40</v>
       </c>
       <c r="D141" s="0" t="s">
@@ -8287,12 +8285,12 @@
     </row>
     <row r="142">
       <c r="A142" s="0" t="s">
+        <v>389</v>
+      </c>
+      <c r="B142" s="0" t="s">
         <v>390</v>
       </c>
-      <c r="B142" s="0" t="s">
-        <v>391</v>
-      </c>
-      <c r="C142" s="8">
+      <c r="C142" s="9">
         <v>175</v>
       </c>
       <c r="D142" s="0" t="s">
@@ -8319,12 +8317,12 @@
     </row>
     <row r="143">
       <c r="A143" s="0" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B143" s="0" t="s">
-        <v>391</v>
-      </c>
-      <c r="C143" s="8">
+        <v>390</v>
+      </c>
+      <c r="C143" s="9">
         <v>100</v>
       </c>
       <c r="D143" s="0" t="s">
@@ -8351,12 +8349,12 @@
     </row>
     <row r="144">
       <c r="A144" s="0" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B144" s="0" t="s">
-        <v>391</v>
-      </c>
-      <c r="C144" s="8">
+        <v>390</v>
+      </c>
+      <c r="C144" s="9">
         <v>175</v>
       </c>
       <c r="D144" s="0" t="s">
@@ -8383,12 +8381,12 @@
     </row>
     <row r="145">
       <c r="A145" s="0" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B145" s="0" t="s">
-        <v>391</v>
-      </c>
-      <c r="C145" s="8">
+        <v>390</v>
+      </c>
+      <c r="C145" s="9">
         <v>144</v>
       </c>
       <c r="D145" s="0" t="s">
@@ -8415,12 +8413,12 @@
     </row>
     <row r="146">
       <c r="A146" s="0" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B146" s="0" t="s">
-        <v>391</v>
-      </c>
-      <c r="C146" s="8">
+        <v>390</v>
+      </c>
+      <c r="C146" s="9">
         <v>50</v>
       </c>
       <c r="D146" s="0" t="s">
@@ -8447,12 +8445,12 @@
     </row>
     <row r="147">
       <c r="A147" s="0" t="s">
+        <v>395</v>
+      </c>
+      <c r="B147" s="0" t="s">
         <v>396</v>
       </c>
-      <c r="B147" s="0" t="s">
-        <v>397</v>
-      </c>
-      <c r="C147" s="8">
+      <c r="C147" s="9">
         <v>72</v>
       </c>
       <c r="D147" s="0" t="s">
@@ -8479,12 +8477,12 @@
     </row>
     <row r="148">
       <c r="A148" s="0" t="s">
+        <v>397</v>
+      </c>
+      <c r="B148" s="0" t="s">
         <v>398</v>
       </c>
-      <c r="B148" s="0" t="s">
-        <v>399</v>
-      </c>
-      <c r="C148" s="8">
+      <c r="C148" s="9">
         <v>10</v>
       </c>
       <c r="D148" s="0" t="s">
@@ -8511,12 +8509,12 @@
     </row>
     <row r="149">
       <c r="A149" s="0" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B149" s="0" t="s">
-        <v>399</v>
-      </c>
-      <c r="C149" s="8">
+        <v>398</v>
+      </c>
+      <c r="C149" s="9">
         <v>38</v>
       </c>
       <c r="D149" s="0" t="s">
@@ -8543,12 +8541,12 @@
     </row>
     <row r="150">
       <c r="A150" s="0" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B150" s="0" t="s">
-        <v>399</v>
-      </c>
-      <c r="C150" s="8">
+        <v>398</v>
+      </c>
+      <c r="C150" s="9">
         <v>2</v>
       </c>
       <c r="D150" s="0" t="s">
@@ -8575,12 +8573,12 @@
     </row>
     <row r="151">
       <c r="A151" s="0" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B151" s="0" t="s">
-        <v>391</v>
-      </c>
-      <c r="C151" s="8">
+        <v>390</v>
+      </c>
+      <c r="C151" s="9">
         <v>200</v>
       </c>
       <c r="D151" s="0" t="s">
@@ -8607,12 +8605,12 @@
     </row>
     <row r="152">
       <c r="A152" s="0" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B152" s="0" t="s">
-        <v>391</v>
-      </c>
-      <c r="C152" s="8">
+        <v>390</v>
+      </c>
+      <c r="C152" s="9">
         <v>50</v>
       </c>
       <c r="D152" s="0" t="s">
@@ -8639,12 +8637,12 @@
     </row>
     <row r="153">
       <c r="A153" s="0" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B153" s="0" t="s">
-        <v>391</v>
-      </c>
-      <c r="C153" s="8">
+        <v>390</v>
+      </c>
+      <c r="C153" s="9">
         <v>50</v>
       </c>
       <c r="D153" s="0" t="s">
@@ -8671,12 +8669,12 @@
     </row>
     <row r="154">
       <c r="A154" s="0" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B154" s="0" t="s">
-        <v>391</v>
-      </c>
-      <c r="C154" s="8">
+        <v>390</v>
+      </c>
+      <c r="C154" s="9">
         <v>50</v>
       </c>
       <c r="D154" s="0" t="s">
@@ -8703,12 +8701,12 @@
     </row>
     <row r="155">
       <c r="A155" s="0" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B155" s="0" t="s">
-        <v>391</v>
-      </c>
-      <c r="C155" s="8">
+        <v>390</v>
+      </c>
+      <c r="C155" s="9">
         <v>50</v>
       </c>
       <c r="D155" s="0" t="s">
@@ -8735,12 +8733,12 @@
     </row>
     <row r="156">
       <c r="A156" s="0" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B156" s="0" t="s">
-        <v>391</v>
-      </c>
-      <c r="C156" s="8">
+        <v>390</v>
+      </c>
+      <c r="C156" s="9">
         <v>30</v>
       </c>
       <c r="D156" s="0" t="s">
@@ -8767,12 +8765,12 @@
     </row>
     <row r="157">
       <c r="A157" s="0" t="s">
+        <v>407</v>
+      </c>
+      <c r="B157" s="0" t="s">
         <v>408</v>
       </c>
-      <c r="B157" s="0" t="s">
-        <v>409</v>
-      </c>
-      <c r="C157" s="8">
+      <c r="C157" s="9">
         <v>30</v>
       </c>
       <c r="D157" s="0" t="s">
@@ -8799,12 +8797,12 @@
     </row>
     <row r="158">
       <c r="A158" s="0" t="s">
+        <v>409</v>
+      </c>
+      <c r="B158" s="0" t="s">
         <v>410</v>
       </c>
-      <c r="B158" s="0" t="s">
-        <v>411</v>
-      </c>
-      <c r="C158" s="8">
+      <c r="C158" s="9">
         <v>40</v>
       </c>
       <c r="D158" s="0" t="s">
@@ -8831,12 +8829,12 @@
     </row>
     <row r="159">
       <c r="A159" s="0" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B159" s="0" t="s">
-        <v>411</v>
-      </c>
-      <c r="C159" s="8">
+        <v>410</v>
+      </c>
+      <c r="C159" s="9">
         <v>50</v>
       </c>
       <c r="D159" s="0" t="s">
@@ -8863,12 +8861,12 @@
     </row>
     <row r="160">
       <c r="A160" s="0" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B160" s="0" t="s">
-        <v>411</v>
-      </c>
-      <c r="C160" s="8">
+        <v>410</v>
+      </c>
+      <c r="C160" s="9">
         <v>50</v>
       </c>
       <c r="D160" s="0" t="s">
@@ -8895,12 +8893,12 @@
     </row>
     <row r="161">
       <c r="A161" s="0" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B161" s="0" t="s">
-        <v>297</v>
-      </c>
-      <c r="C161" s="8">
+        <v>296</v>
+      </c>
+      <c r="C161" s="9">
         <v>24</v>
       </c>
       <c r="D161" s="0" t="s">
@@ -8927,12 +8925,12 @@
     </row>
     <row r="162">
       <c r="A162" s="0" t="s">
+        <v>414</v>
+      </c>
+      <c r="B162" s="0" t="s">
         <v>415</v>
       </c>
-      <c r="B162" s="0" t="s">
-        <v>416</v>
-      </c>
-      <c r="C162" s="8">
+      <c r="C162" s="9">
         <v>100</v>
       </c>
       <c r="D162" s="0" t="s">
@@ -8959,12 +8957,12 @@
     </row>
     <row r="163">
       <c r="A163" s="0" t="s">
+        <v>416</v>
+      </c>
+      <c r="B163" s="0" t="s">
         <v>417</v>
       </c>
-      <c r="B163" s="0" t="s">
-        <v>418</v>
-      </c>
-      <c r="C163" s="8">
+      <c r="C163" s="9">
         <v>30</v>
       </c>
       <c r="D163" s="0" t="s">
@@ -8991,12 +8989,12 @@
     </row>
     <row r="164">
       <c r="A164" s="0" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B164" s="0" t="s">
-        <v>416</v>
-      </c>
-      <c r="C164" s="8">
+        <v>415</v>
+      </c>
+      <c r="C164" s="9">
         <v>50</v>
       </c>
       <c r="D164" s="0" t="s">
@@ -9023,12 +9021,12 @@
     </row>
     <row r="165">
       <c r="A165" s="0" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B165" s="0" t="s">
-        <v>416</v>
-      </c>
-      <c r="C165" s="8">
+        <v>415</v>
+      </c>
+      <c r="C165" s="9">
         <v>20</v>
       </c>
       <c r="D165" s="0" t="s">
@@ -9055,12 +9053,12 @@
     </row>
     <row r="166">
       <c r="A166" s="0" t="s">
+        <v>420</v>
+      </c>
+      <c r="B166" s="0" t="s">
         <v>421</v>
       </c>
-      <c r="B166" s="0" t="s">
-        <v>422</v>
-      </c>
-      <c r="C166" s="8">
+      <c r="C166" s="9">
         <v>10</v>
       </c>
       <c r="D166" s="0" t="s">
@@ -9087,12 +9085,12 @@
     </row>
     <row r="167">
       <c r="A167" s="0" t="s">
+        <v>422</v>
+      </c>
+      <c r="B167" s="0" t="s">
         <v>423</v>
       </c>
-      <c r="B167" s="0" t="s">
-        <v>424</v>
-      </c>
-      <c r="C167" s="8">
+      <c r="C167" s="9">
         <v>5</v>
       </c>
       <c r="D167" s="0" t="s">
@@ -9119,12 +9117,12 @@
     </row>
     <row r="168">
       <c r="A168" s="0" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B168" s="0" t="s">
-        <v>409</v>
-      </c>
-      <c r="C168" s="8">
+        <v>408</v>
+      </c>
+      <c r="C168" s="9">
         <v>10</v>
       </c>
       <c r="D168" s="0" t="s">
@@ -9151,12 +9149,12 @@
     </row>
     <row r="169">
       <c r="A169" s="0" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B169" s="0" t="s">
-        <v>409</v>
-      </c>
-      <c r="C169" s="8">
+        <v>408</v>
+      </c>
+      <c r="C169" s="9">
         <v>30</v>
       </c>
       <c r="D169" s="0" t="s">
@@ -9183,12 +9181,12 @@
     </row>
     <row r="170">
       <c r="A170" s="0" t="s">
+        <v>426</v>
+      </c>
+      <c r="B170" s="0" t="s">
         <v>427</v>
       </c>
-      <c r="B170" s="0" t="s">
-        <v>428</v>
-      </c>
-      <c r="C170" s="8">
+      <c r="C170" s="9">
         <v>2</v>
       </c>
       <c r="D170" s="0" t="s">
@@ -9215,12 +9213,12 @@
     </row>
     <row r="171">
       <c r="A171" s="0" t="s">
+        <v>428</v>
+      </c>
+      <c r="B171" s="0" t="s">
         <v>429</v>
       </c>
-      <c r="B171" s="0" t="s">
-        <v>430</v>
-      </c>
-      <c r="C171" s="8">
+      <c r="C171" s="9">
         <v>4</v>
       </c>
       <c r="D171" s="0" t="s">
@@ -9247,12 +9245,12 @@
     </row>
     <row r="172">
       <c r="A172" s="0" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B172" s="0" t="s">
-        <v>430</v>
-      </c>
-      <c r="C172" s="8">
+        <v>429</v>
+      </c>
+      <c r="C172" s="9">
         <v>50</v>
       </c>
       <c r="D172" s="0" t="s">
@@ -9279,12 +9277,12 @@
     </row>
     <row r="173">
       <c r="A173" s="0" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B173" s="0" t="s">
-        <v>430</v>
-      </c>
-      <c r="C173" s="8">
+        <v>429</v>
+      </c>
+      <c r="C173" s="9">
         <v>60</v>
       </c>
       <c r="D173" s="0" t="s">
@@ -9311,12 +9309,12 @@
     </row>
     <row r="174">
       <c r="A174" s="0" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B174" s="0" t="s">
-        <v>430</v>
-      </c>
-      <c r="C174" s="8">
+        <v>429</v>
+      </c>
+      <c r="C174" s="9">
         <v>40</v>
       </c>
       <c r="D174" s="0" t="s">
@@ -9343,12 +9341,12 @@
     </row>
     <row r="175">
       <c r="A175" s="0" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B175" s="0" t="s">
-        <v>430</v>
-      </c>
-      <c r="C175" s="8">
+        <v>429</v>
+      </c>
+      <c r="C175" s="9">
         <v>30</v>
       </c>
       <c r="D175" s="0" t="s">
@@ -9375,12 +9373,12 @@
     </row>
     <row r="176">
       <c r="A176" s="0" t="s">
+        <v>434</v>
+      </c>
+      <c r="B176" s="0" t="s">
         <v>435</v>
       </c>
-      <c r="B176" s="0" t="s">
-        <v>436</v>
-      </c>
-      <c r="C176" s="8">
+      <c r="C176" s="9">
         <v>30</v>
       </c>
       <c r="D176" s="0" t="s">
@@ -9407,12 +9405,12 @@
     </row>
     <row r="177">
       <c r="A177" s="0" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B177" s="0" t="s">
-        <v>424</v>
-      </c>
-      <c r="C177" s="8">
+        <v>423</v>
+      </c>
+      <c r="C177" s="9">
         <v>10</v>
       </c>
       <c r="D177" s="0" t="s">
@@ -9439,12 +9437,12 @@
     </row>
     <row r="178">
       <c r="A178" s="0" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B178" s="0" t="s">
-        <v>424</v>
-      </c>
-      <c r="C178" s="8">
+        <v>423</v>
+      </c>
+      <c r="C178" s="9">
         <v>14</v>
       </c>
       <c r="D178" s="0" t="s">
@@ -9471,12 +9469,12 @@
     </row>
     <row r="179">
       <c r="A179" s="0" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B179" s="0" t="s">
-        <v>424</v>
-      </c>
-      <c r="C179" s="8">
+        <v>423</v>
+      </c>
+      <c r="C179" s="9">
         <v>6</v>
       </c>
       <c r="D179" s="0" t="s">
@@ -9503,12 +9501,12 @@
     </row>
     <row r="180">
       <c r="A180" s="0" t="s">
+        <v>439</v>
+      </c>
+      <c r="B180" s="0" t="s">
         <v>440</v>
       </c>
-      <c r="B180" s="0" t="s">
-        <v>441</v>
-      </c>
-      <c r="C180" s="8">
+      <c r="C180" s="9">
         <v>2</v>
       </c>
       <c r="D180" s="0" t="s">
@@ -9535,12 +9533,12 @@
     </row>
     <row r="181">
       <c r="A181" s="0" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B181" s="0" t="s">
-        <v>428</v>
-      </c>
-      <c r="C181" s="8">
+        <v>427</v>
+      </c>
+      <c r="C181" s="9">
         <v>10</v>
       </c>
       <c r="D181" s="0" t="s">
@@ -9567,12 +9565,12 @@
     </row>
     <row r="182">
       <c r="A182" s="0" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B182" s="0" t="s">
-        <v>422</v>
-      </c>
-      <c r="C182" s="8">
+        <v>421</v>
+      </c>
+      <c r="C182" s="9">
         <v>16</v>
       </c>
       <c r="D182" s="0" t="s">
@@ -9599,12 +9597,12 @@
     </row>
     <row r="183">
       <c r="A183" s="0" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B183" s="0" t="s">
-        <v>430</v>
-      </c>
-      <c r="C183" s="8">
+        <v>429</v>
+      </c>
+      <c r="C183" s="9">
         <v>30</v>
       </c>
       <c r="D183" s="0" t="s">
@@ -9631,12 +9629,12 @@
     </row>
     <row r="184">
       <c r="A184" s="0" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B184" s="0" t="s">
-        <v>422</v>
-      </c>
-      <c r="C184" s="8">
+        <v>421</v>
+      </c>
+      <c r="C184" s="9">
         <v>20</v>
       </c>
       <c r="D184" s="0" t="s">
@@ -9663,12 +9661,12 @@
     </row>
     <row r="185">
       <c r="A185" s="0" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B185" s="0" t="s">
-        <v>422</v>
-      </c>
-      <c r="C185" s="8">
+        <v>421</v>
+      </c>
+      <c r="C185" s="9">
         <v>10</v>
       </c>
       <c r="D185" s="0" t="s">
@@ -9695,12 +9693,12 @@
     </row>
     <row r="186">
       <c r="A186" s="0" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B186" s="0" t="s">
-        <v>430</v>
-      </c>
-      <c r="C186" s="8">
+        <v>429</v>
+      </c>
+      <c r="C186" s="9">
         <v>20</v>
       </c>
       <c r="D186" s="0" t="s">
@@ -9727,12 +9725,12 @@
     </row>
     <row r="187">
       <c r="A187" s="0" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B187" s="0" t="s">
-        <v>422</v>
-      </c>
-      <c r="C187" s="8">
+        <v>421</v>
+      </c>
+      <c r="C187" s="9">
         <v>10</v>
       </c>
       <c r="D187" s="0" t="s">
@@ -9759,12 +9757,12 @@
     </row>
     <row r="188">
       <c r="A188" s="0" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B188" s="0" t="s">
-        <v>422</v>
-      </c>
-      <c r="C188" s="8">
+        <v>421</v>
+      </c>
+      <c r="C188" s="9">
         <v>6</v>
       </c>
       <c r="D188" s="0" t="s">
@@ -9791,12 +9789,12 @@
     </row>
     <row r="189">
       <c r="A189" s="0" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B189" s="0" t="s">
-        <v>430</v>
-      </c>
-      <c r="C189" s="8">
+        <v>429</v>
+      </c>
+      <c r="C189" s="9">
         <v>6</v>
       </c>
       <c r="D189" s="0" t="s">
@@ -9823,12 +9821,12 @@
     </row>
     <row r="190">
       <c r="A190" s="0" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B190" s="0" t="s">
-        <v>422</v>
-      </c>
-      <c r="C190" s="8">
+        <v>421</v>
+      </c>
+      <c r="C190" s="9">
         <v>24</v>
       </c>
       <c r="D190" s="0" t="s">
@@ -9855,12 +9853,12 @@
     </row>
     <row r="191">
       <c r="A191" s="0" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B191" s="0" t="s">
-        <v>422</v>
-      </c>
-      <c r="C191" s="8">
+        <v>421</v>
+      </c>
+      <c r="C191" s="9">
         <v>20</v>
       </c>
       <c r="D191" s="0" t="s">
@@ -9887,12 +9885,12 @@
     </row>
     <row r="192">
       <c r="A192" s="0" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B192" s="0" t="s">
-        <v>422</v>
-      </c>
-      <c r="C192" s="8">
+        <v>421</v>
+      </c>
+      <c r="C192" s="9">
         <v>20</v>
       </c>
       <c r="D192" s="0" t="s">
@@ -9919,12 +9917,12 @@
     </row>
     <row r="193">
       <c r="A193" s="0" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B193" s="0" t="s">
-        <v>422</v>
-      </c>
-      <c r="C193" s="8">
+        <v>421</v>
+      </c>
+      <c r="C193" s="9">
         <v>10</v>
       </c>
       <c r="D193" s="0" t="s">
@@ -9951,12 +9949,12 @@
     </row>
     <row r="194">
       <c r="A194" s="0" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B194" s="0" t="s">
-        <v>422</v>
-      </c>
-      <c r="C194" s="8">
+        <v>421</v>
+      </c>
+      <c r="C194" s="9">
         <v>2</v>
       </c>
       <c r="D194" s="0" t="s">
@@ -9983,12 +9981,12 @@
     </row>
     <row r="195">
       <c r="A195" s="0" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B195" s="0" t="s">
-        <v>430</v>
-      </c>
-      <c r="C195" s="8">
+        <v>429</v>
+      </c>
+      <c r="C195" s="9">
         <v>60</v>
       </c>
       <c r="D195" s="0" t="s">
@@ -10015,12 +10013,12 @@
     </row>
     <row r="196">
       <c r="A196" s="0" t="s">
+        <v>456</v>
+      </c>
+      <c r="B196" s="0" t="s">
         <v>457</v>
       </c>
-      <c r="B196" s="0" t="s">
-        <v>458</v>
-      </c>
-      <c r="C196" s="8">
+      <c r="C196" s="9">
         <v>50</v>
       </c>
       <c r="D196" s="0" t="s">
@@ -10047,12 +10045,12 @@
     </row>
     <row r="197">
       <c r="A197" s="0" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B197" s="0" t="s">
-        <v>458</v>
-      </c>
-      <c r="C197" s="8">
+        <v>457</v>
+      </c>
+      <c r="C197" s="9">
         <v>144</v>
       </c>
       <c r="D197" s="0" t="s">
@@ -10079,12 +10077,12 @@
     </row>
     <row r="198">
       <c r="A198" s="0" t="s">
+        <v>459</v>
+      </c>
+      <c r="B198" s="0" t="s">
         <v>460</v>
       </c>
-      <c r="B198" s="0" t="s">
-        <v>461</v>
-      </c>
-      <c r="C198" s="8">
+      <c r="C198" s="9">
         <v>20</v>
       </c>
       <c r="D198" s="0" t="s">
@@ -10111,12 +10109,12 @@
     </row>
     <row r="199">
       <c r="A199" s="0" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B199" s="0" t="s">
-        <v>458</v>
-      </c>
-      <c r="C199" s="8">
+        <v>457</v>
+      </c>
+      <c r="C199" s="9">
         <v>100</v>
       </c>
       <c r="D199" s="0" t="s">
@@ -10143,12 +10141,12 @@
     </row>
     <row r="200">
       <c r="A200" s="0" t="s">
+        <v>462</v>
+      </c>
+      <c r="B200" s="0" t="s">
         <v>463</v>
       </c>
-      <c r="B200" s="0" t="s">
-        <v>464</v>
-      </c>
-      <c r="C200" s="8">
+      <c r="C200" s="9">
         <v>50</v>
       </c>
       <c r="D200" s="0" t="s">
@@ -10175,12 +10173,12 @@
     </row>
     <row r="201">
       <c r="A201" s="0" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B201" s="0" t="s">
-        <v>464</v>
-      </c>
-      <c r="C201" s="8">
+        <v>463</v>
+      </c>
+      <c r="C201" s="9">
         <v>100</v>
       </c>
       <c r="D201" s="0" t="s">
@@ -10207,12 +10205,12 @@
     </row>
     <row r="202">
       <c r="A202" s="0" t="s">
+        <v>465</v>
+      </c>
+      <c r="B202" s="0" t="s">
         <v>466</v>
       </c>
-      <c r="B202" s="0" t="s">
-        <v>467</v>
-      </c>
-      <c r="C202" s="8">
+      <c r="C202" s="9">
         <v>30</v>
       </c>
       <c r="D202" s="0" t="s">
@@ -10239,12 +10237,12 @@
     </row>
     <row r="203">
       <c r="A203" s="0" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B203" s="0" t="s">
-        <v>467</v>
-      </c>
-      <c r="C203" s="8">
+        <v>466</v>
+      </c>
+      <c r="C203" s="9">
         <v>30</v>
       </c>
       <c r="D203" s="0" t="s">
@@ -10271,12 +10269,12 @@
     </row>
     <row r="204">
       <c r="A204" s="0" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B204" s="0" t="s">
-        <v>467</v>
-      </c>
-      <c r="C204" s="8">
+        <v>466</v>
+      </c>
+      <c r="C204" s="9">
         <v>48</v>
       </c>
       <c r="D204" s="0" t="s">
@@ -10303,12 +10301,12 @@
     </row>
     <row r="205">
       <c r="A205" s="0" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B205" s="0" t="s">
-        <v>467</v>
-      </c>
-      <c r="C205" s="8">
+        <v>466</v>
+      </c>
+      <c r="C205" s="9">
         <v>25</v>
       </c>
       <c r="D205" s="0" t="s">
@@ -10335,12 +10333,12 @@
     </row>
     <row r="206">
       <c r="A206" s="0" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B206" s="0" t="s">
-        <v>467</v>
-      </c>
-      <c r="C206" s="8">
+        <v>466</v>
+      </c>
+      <c r="C206" s="9">
         <v>20</v>
       </c>
       <c r="D206" s="0" t="s">
@@ -10367,12 +10365,12 @@
     </row>
     <row r="207">
       <c r="A207" s="0" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B207" s="0" t="s">
-        <v>467</v>
-      </c>
-      <c r="C207" s="8">
+        <v>466</v>
+      </c>
+      <c r="C207" s="9">
         <v>40</v>
       </c>
       <c r="D207" s="0" t="s">
@@ -10399,12 +10397,12 @@
     </row>
     <row r="208">
       <c r="A208" s="0" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B208" s="0" t="s">
-        <v>467</v>
-      </c>
-      <c r="C208" s="8">
+        <v>466</v>
+      </c>
+      <c r="C208" s="9">
         <v>10</v>
       </c>
       <c r="D208" s="0" t="s">
@@ -10431,12 +10429,12 @@
     </row>
     <row r="209">
       <c r="A209" s="0" t="s">
+        <v>473</v>
+      </c>
+      <c r="B209" s="0" t="s">
         <v>474</v>
       </c>
-      <c r="B209" s="0" t="s">
-        <v>475</v>
-      </c>
-      <c r="C209" s="8">
+      <c r="C209" s="9">
         <v>10</v>
       </c>
       <c r="D209" s="0" t="s">
@@ -10463,12 +10461,12 @@
     </row>
     <row r="210">
       <c r="A210" s="0" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B210" s="0" t="s">
-        <v>475</v>
-      </c>
-      <c r="C210" s="8">
+        <v>474</v>
+      </c>
+      <c r="C210" s="9">
         <v>30</v>
       </c>
       <c r="D210" s="0" t="s">
@@ -10495,12 +10493,12 @@
     </row>
     <row r="211">
       <c r="A211" s="0" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B211" s="0" t="s">
-        <v>475</v>
-      </c>
-      <c r="C211" s="8">
+        <v>474</v>
+      </c>
+      <c r="C211" s="9">
         <v>30</v>
       </c>
       <c r="D211" s="0" t="s">
@@ -10527,12 +10525,12 @@
     </row>
     <row r="212">
       <c r="A212" s="0" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B212" s="0" t="s">
-        <v>475</v>
-      </c>
-      <c r="C212" s="8">
+        <v>474</v>
+      </c>
+      <c r="C212" s="9">
         <v>20</v>
       </c>
       <c r="D212" s="0" t="s">
@@ -10559,12 +10557,12 @@
     </row>
     <row r="213">
       <c r="A213" s="0" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B213" s="0" t="s">
-        <v>475</v>
-      </c>
-      <c r="C213" s="8">
+        <v>474</v>
+      </c>
+      <c r="C213" s="9">
         <v>15</v>
       </c>
       <c r="D213" s="0" t="s">
@@ -10591,12 +10589,12 @@
     </row>
     <row r="214">
       <c r="A214" s="0" t="s">
+        <v>479</v>
+      </c>
+      <c r="B214" s="0" t="s">
         <v>480</v>
       </c>
-      <c r="B214" s="0" t="s">
-        <v>481</v>
-      </c>
-      <c r="C214" s="8">
+      <c r="C214" s="9">
         <v>50</v>
       </c>
       <c r="D214" s="0" t="s">
@@ -10623,12 +10621,12 @@
     </row>
     <row r="215">
       <c r="A215" s="0" t="s">
+        <v>481</v>
+      </c>
+      <c r="B215" s="0" t="s">
         <v>482</v>
       </c>
-      <c r="B215" s="0" t="s">
-        <v>483</v>
-      </c>
-      <c r="C215" s="8">
+      <c r="C215" s="9">
         <v>30</v>
       </c>
       <c r="D215" s="0" t="s">
@@ -10655,12 +10653,12 @@
     </row>
     <row r="216">
       <c r="A216" s="0" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B216" s="0" t="s">
-        <v>483</v>
-      </c>
-      <c r="C216" s="8">
+        <v>482</v>
+      </c>
+      <c r="C216" s="9">
         <v>20</v>
       </c>
       <c r="D216" s="0" t="s">
@@ -10687,12 +10685,12 @@
     </row>
     <row r="217">
       <c r="A217" s="0" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B217" s="0" t="s">
-        <v>483</v>
-      </c>
-      <c r="C217" s="8">
+        <v>482</v>
+      </c>
+      <c r="C217" s="9">
         <v>20</v>
       </c>
       <c r="D217" s="0" t="s">
@@ -10719,12 +10717,12 @@
     </row>
     <row r="218">
       <c r="A218" s="0" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B218" s="0" t="s">
-        <v>483</v>
-      </c>
-      <c r="C218" s="8">
+        <v>482</v>
+      </c>
+      <c r="C218" s="9">
         <v>100</v>
       </c>
       <c r="D218" s="0" t="s">
@@ -10751,12 +10749,12 @@
     </row>
     <row r="219">
       <c r="A219" s="0" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B219" s="0" t="s">
-        <v>483</v>
-      </c>
-      <c r="C219" s="8">
+        <v>482</v>
+      </c>
+      <c r="C219" s="9">
         <v>50</v>
       </c>
       <c r="D219" s="0" t="s">
@@ -10783,12 +10781,12 @@
     </row>
     <row r="220">
       <c r="A220" s="0" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B220" s="0" t="s">
-        <v>467</v>
-      </c>
-      <c r="C220" s="8">
+        <v>466</v>
+      </c>
+      <c r="C220" s="9">
         <v>63</v>
       </c>
       <c r="D220" s="0" t="s">
@@ -10815,12 +10813,12 @@
     </row>
     <row r="221">
       <c r="A221" s="0" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B221" s="0" t="s">
-        <v>467</v>
-      </c>
-      <c r="C221" s="8">
+        <v>466</v>
+      </c>
+      <c r="C221" s="9">
         <v>20</v>
       </c>
       <c r="D221" s="0" t="s">
@@ -10847,12 +10845,12 @@
     </row>
     <row r="222">
       <c r="A222" s="0" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B222" s="0" t="s">
-        <v>467</v>
-      </c>
-      <c r="C222" s="8">
+        <v>466</v>
+      </c>
+      <c r="C222" s="9">
         <v>20</v>
       </c>
       <c r="D222" s="0" t="s">
@@ -10879,12 +10877,12 @@
     </row>
     <row r="223">
       <c r="A223" s="0" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B223" s="0" t="s">
-        <v>467</v>
-      </c>
-      <c r="C223" s="8">
+        <v>466</v>
+      </c>
+      <c r="C223" s="9">
         <v>52</v>
       </c>
       <c r="D223" s="0" t="s">
@@ -10911,12 +10909,12 @@
     </row>
     <row r="224">
       <c r="A224" s="0" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B224" s="0" t="s">
-        <v>467</v>
-      </c>
-      <c r="C224" s="8">
+        <v>466</v>
+      </c>
+      <c r="C224" s="9">
         <v>32</v>
       </c>
       <c r="D224" s="0" t="s">
@@ -10943,12 +10941,12 @@
     </row>
     <row r="225">
       <c r="A225" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="B225" s="0" t="s">
         <v>493</v>
       </c>
-      <c r="B225" s="0" t="s">
-        <v>494</v>
-      </c>
-      <c r="C225" s="8">
+      <c r="C225" s="9">
         <v>10</v>
       </c>
       <c r="D225" s="0" t="s">
@@ -10975,12 +10973,12 @@
     </row>
     <row r="226">
       <c r="A226" s="0" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B226" s="0" t="s">
-        <v>494</v>
-      </c>
-      <c r="C226" s="8">
+        <v>493</v>
+      </c>
+      <c r="C226" s="9">
         <v>6</v>
       </c>
       <c r="D226" s="0" t="s">
@@ -11007,12 +11005,12 @@
     </row>
     <row r="227">
       <c r="A227" s="0" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B227" s="0" t="s">
-        <v>475</v>
-      </c>
-      <c r="C227" s="8">
+        <v>474</v>
+      </c>
+      <c r="C227" s="9">
         <v>48</v>
       </c>
       <c r="D227" s="0" t="s">
@@ -11039,12 +11037,12 @@
     </row>
     <row r="228">
       <c r="A228" s="0" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B228" s="0" t="s">
-        <v>475</v>
-      </c>
-      <c r="C228" s="8">
+        <v>474</v>
+      </c>
+      <c r="C228" s="9">
         <v>128</v>
       </c>
       <c r="D228" s="0" t="s">
@@ -11071,12 +11069,12 @@
     </row>
     <row r="229">
       <c r="A229" s="0" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B229" s="0" t="s">
-        <v>475</v>
-      </c>
-      <c r="C229" s="8">
+        <v>474</v>
+      </c>
+      <c r="C229" s="9">
         <v>21</v>
       </c>
       <c r="D229" s="0" t="s">
@@ -11103,12 +11101,12 @@
     </row>
     <row r="230">
       <c r="A230" s="0" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B230" s="0" t="s">
-        <v>475</v>
-      </c>
-      <c r="C230" s="8">
+        <v>474</v>
+      </c>
+      <c r="C230" s="9">
         <v>21</v>
       </c>
       <c r="D230" s="0" t="s">
@@ -11135,12 +11133,12 @@
     </row>
     <row r="231">
       <c r="A231" s="0" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B231" s="0" t="s">
-        <v>475</v>
-      </c>
-      <c r="C231" s="8">
+        <v>474</v>
+      </c>
+      <c r="C231" s="9">
         <v>54</v>
       </c>
       <c r="D231" s="0" t="s">
@@ -11167,12 +11165,12 @@
     </row>
     <row r="232">
       <c r="A232" s="0" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B232" s="0" t="s">
-        <v>475</v>
-      </c>
-      <c r="C232" s="8">
+        <v>474</v>
+      </c>
+      <c r="C232" s="9">
         <v>24</v>
       </c>
       <c r="D232" s="0" t="s">
@@ -11199,12 +11197,12 @@
     </row>
     <row r="233">
       <c r="A233" s="0" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B233" s="0" t="s">
-        <v>475</v>
-      </c>
-      <c r="C233" s="8">
+        <v>474</v>
+      </c>
+      <c r="C233" s="9">
         <v>20</v>
       </c>
       <c r="D233" s="0" t="s">
@@ -11231,12 +11229,12 @@
     </row>
     <row r="234">
       <c r="A234" s="0" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B234" s="0" t="s">
-        <v>475</v>
-      </c>
-      <c r="C234" s="8">
+        <v>474</v>
+      </c>
+      <c r="C234" s="9">
         <v>24</v>
       </c>
       <c r="D234" s="0" t="s">
@@ -11263,12 +11261,12 @@
     </row>
     <row r="235">
       <c r="A235" s="0" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B235" s="0" t="s">
-        <v>467</v>
-      </c>
-      <c r="C235" s="8">
+        <v>466</v>
+      </c>
+      <c r="C235" s="9">
         <v>48</v>
       </c>
       <c r="D235" s="0" t="s">
@@ -11295,12 +11293,12 @@
     </row>
     <row r="236">
       <c r="A236" s="0" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B236" s="0" t="s">
-        <v>475</v>
-      </c>
-      <c r="C236" s="8">
+        <v>474</v>
+      </c>
+      <c r="C236" s="9">
         <v>32</v>
       </c>
       <c r="D236" s="0" t="s">
@@ -11330,9 +11328,9 @@
         <v>0</v>
       </c>
       <c r="B238" s="0" t="s">
-        <v>506</v>
-      </c>
-      <c r="C238" s="8">
+        <v>505</v>
+      </c>
+      <c r="C238" s="9">
         <v>17846</v>
       </c>
       <c r="D238" s="0" t="s">
@@ -11383,7 +11381,7 @@
         <v>0</v>
       </c>
       <c r="H240" s="0" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I240" s="0" t="s">
         <v>0</v>
@@ -11412,7 +11410,7 @@
         <v>0</v>
       </c>
       <c r="H242" s="0" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="I242" s="0" t="s">
         <v>0</v>
@@ -11441,7 +11439,7 @@
         <v>0</v>
       </c>
       <c r="H244" s="0" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="I244" s="4">
         <v>93716.03</v>
